--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ECE-Boards-Practice_st\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1031F2-C80A-4AE7-973A-18B206449F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FB525-A77D-46AB-AE33-2ACC74FBE5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F837B87B-47E8-48E8-A91E-D5D7B9A773BB}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F837B87B-47E8-48E8-A91E-D5D7B9A773BB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1999">
   <si>
     <t>Subject</t>
   </si>
@@ -5157,9 +5157,6 @@
     <t>_x000D__x000D_Reason: The value of coefficient of friction is lowered due to wetting of the surface</t>
   </si>
   <si>
-    <t>Which_x000D_of the following statements is true?</t>
-  </si>
-  <si>
     <t>A homogenous mixture can be separated by all of the following methods except</t>
   </si>
   <si>
@@ -6066,6 +6063,215 @@
 isomers: same molecular formula, different atom arrangement
 isotopes: same # of protons, different # of neutrons
 isobars: same # of protons &amp; neutrons, different elements</t>
+  </si>
+  <si>
+    <t>Which of the following statements is true?</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>If a square matrix A is real and symmetric, then the eigenvalues ____.</t>
+  </si>
+  <si>
+    <t>are always real</t>
+  </si>
+  <si>
+    <t>According to Hall efect, the Hall voltage is proportional to</t>
+  </si>
+  <si>
+    <t>the product of B and I</t>
+  </si>
+  <si>
+    <t>inverse of the product of B and I</t>
+  </si>
+  <si>
+    <t>I only</t>
+  </si>
+  <si>
+    <t>B only</t>
+  </si>
+  <si>
+    <t>B is magnetic field and I is the current</t>
+  </si>
+  <si>
+    <t>ELECS</t>
+  </si>
+  <si>
+    <t>Drift current in semiconductors depends upon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only the electric field
+</t>
+  </si>
+  <si>
+    <t>only the carrier concentration gradient</t>
+  </si>
+  <si>
+    <t>both the electric field and the carrier concentration</t>
+  </si>
+  <si>
+    <t>both the electric field and the carrier concentration gradient</t>
+  </si>
+  <si>
+    <t>What special type of diode is capable of both amplification and oscillation</t>
+  </si>
+  <si>
+    <t>Point contact</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Zener</t>
+  </si>
+  <si>
+    <t>Junction</t>
+  </si>
+  <si>
+    <t>A die is thrown as long as necessary for an ace or a 6 to turn up. Given that no ace turned up at the first two throws, what is the probability that at least three throws will be necessary?</t>
+  </si>
+  <si>
+    <t>16/25</t>
+  </si>
+  <si>
+    <t>Two athletic teams A and B play a series of independent games until one of them wins 4 games. The probability of each team winning in each game equals to 1/2. Find the probability that the series will end, in at most 6 games.</t>
+  </si>
+  <si>
+    <t>11/16</t>
+  </si>
+  <si>
+    <t>Two athletic teams A and B play a series of independent games until one of them wins 4 games. The probability of each team winning in each game equals to 1/2. Find the probability that the series will end, in 6 games given that team A won the first two games.</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>The angle between 2i + j – 3k and 3i – 2j – k.</t>
+  </si>
+  <si>
+    <t>60 deg</t>
+  </si>
+  <si>
+    <t>If 5 times the 5th term of an A.P. is equal to the 10 times the 10th term, find the 15th term of the A.P.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Find the square root of 12 – 6i.</t>
+  </si>
+  <si>
+    <t>–3.856 + 0.842i</t>
+  </si>
+  <si>
+    <t>Find a unit vector normal to the plane of vectors A = 3i – 2j + 4k and B = i + j – 2k.</t>
+  </si>
+  <si>
+    <t>±(2j+k)/(sqrt(5))</t>
+  </si>
+  <si>
+    <t>In drawing two balls, from urn containing 10 balls of each of the colors, red, white and blue, find the probability of getting two different colors.</t>
+  </si>
+  <si>
+    <t>20/29</t>
+  </si>
+  <si>
+    <t>Today is Monday, 1 July 2002. What day of the week will be 2^9833 days from now?</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>As the tide changes, the water level in a bay varies sinusoidally. At high tide today at 8 AM, the water level was 15 feet; at low tide, 6 hours later at 2 PM, it was 3 feet. How fast, in feet per hour, was the water level dropping at noon today?</t>
+  </si>
+  <si>
+    <t>pi*sqrt(3)/2</t>
+  </si>
+  <si>
+    <t>The odds that a Ph.D. thesis will be favorably reviewed by three independent examiners are 5 to 2, 4 to 3 and 3 to 4. What is the probability that a majority approve the thesis?</t>
+  </si>
+  <si>
+    <t>209/343</t>
+  </si>
+  <si>
+    <t>A force field is said to be conservative if</t>
+  </si>
+  <si>
+    <t>curl = 0</t>
+  </si>
+  <si>
+    <t>If the polynomial x^3 + 4x^2-3x-8 is divided by x-5, determine the remainder</t>
+  </si>
+  <si>
+    <t>CalTech I by Dimal</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>If the polynomial 8x^3 + 4x^2 + 6x - 7 is divided by 2x-3, determine the remainder</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>Is (x-1) a factor of the polynomial (4x^5 - 2x^4 + 4x^3 + 9x^2 + 8x - 23)?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No
+</t>
+  </si>
+  <si>
+    <t>Either yes or no</t>
+  </si>
+  <si>
+    <t>Neither yes nor no</t>
+  </si>
+  <si>
+    <t>Is (x+2) a factor of the polynomial (x^3+8x^2+3x+a)?</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>What are the roots of x^2 + x = 0?</t>
+  </si>
+  <si>
+    <t>0 and 1</t>
+  </si>
+  <si>
+    <t>0 and -1</t>
+  </si>
+  <si>
+    <t>1 and -1</t>
   </si>
 </sst>
 </file>
@@ -6131,7 +6337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6142,6 +6348,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6184,7 +6396,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6213,15 +6425,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}" name="Table2" displayName="Table2" ref="A1:N418" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:N418" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}" name="Table2" displayName="Table2" ref="A1:N439" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:N439" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}"/>
   <tableColumns count="14">
     <tableColumn id="14" xr3:uid="{8C72BA36-1D4F-47F7-829C-DCB9EEAF41EC}" name="question_id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{07904C2B-EA76-4DBD-8FF3-33191F2E4E75}" name="Subject" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{FF13B3ED-33E7-4E2F-992E-BDC14FE53A1F}" name="question_txt" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{764A6850-7FD4-46D5-A900-0E96D54F8D95}" name="question_img" dataDxfId="10">
-      <calculatedColumnFormula>CODE(RIGHT(Table2[[#This Row],[A]],1))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="10" xr3:uid="{764A6850-7FD4-46D5-A900-0E96D54F8D95}" name="question_img" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{E90C2A88-182F-4CF1-B584-AF1C273EC53B}" name="mul_choice" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{8A2A57C7-ED5E-4290-B3F1-FC99679DAB2D}" name="ANS" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{25806ABA-7C51-4E31-957B-2D309F87BE97}" name="A" dataDxfId="7"/>
@@ -6534,10 +6744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35E9D52-67F4-485D-888C-11E569371290}">
-  <dimension ref="A1:N418"/>
+  <dimension ref="A1:N439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,7 +6765,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6605,9 +6815,9 @@
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>1873</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6639,9 +6849,9 @@
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>1874</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6673,9 +6883,9 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>1876</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6707,9 +6917,9 @@
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>1877</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6717,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>582</v>
@@ -6741,9 +6951,9 @@
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>1879</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6775,9 +6985,9 @@
         <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>1880</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6809,9 +7019,9 @@
         <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>1881</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6843,9 +7053,9 @@
         <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>1882</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6877,9 +7087,9 @@
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>1883</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6887,7 +7097,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>584</v>
@@ -6911,9 +7121,9 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>1884</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6945,9 +7155,9 @@
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>1885</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6979,9 +7189,9 @@
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>1886</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7013,9 +7223,9 @@
         <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>1887</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
@@ -7047,9 +7257,9 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>1888</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
@@ -7081,9 +7291,9 @@
         <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>1889</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
@@ -7115,9 +7325,9 @@
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>1890</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
@@ -7149,9 +7359,9 @@
         <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>1891</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
@@ -7183,9 +7393,9 @@
         <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>1892</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
@@ -7217,9 +7427,9 @@
         <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>1872</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -7253,7 +7463,7 @@
       <c r="C21" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
@@ -7287,7 +7497,7 @@
       <c r="C22" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
@@ -7321,7 +7531,7 @@
       <c r="C23" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
@@ -7355,7 +7565,7 @@
       <c r="C24" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
@@ -7389,7 +7599,7 @@
       <c r="C25" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
@@ -7421,9 +7631,9 @@
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>1920</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
@@ -7457,7 +7667,7 @@
       <c r="C27" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
@@ -7491,7 +7701,7 @@
       <c r="C28" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
@@ -7525,7 +7735,7 @@
       <c r="C29" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
@@ -7557,9 +7767,9 @@
         <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>1637</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
@@ -7591,9 +7801,9 @@
         <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>1646</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
@@ -7625,9 +7835,9 @@
         <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>1651</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
@@ -7659,9 +7869,9 @@
         <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>1657</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
@@ -7693,9 +7903,9 @@
         <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>1660</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
@@ -7727,9 +7937,9 @@
         <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>1680</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
@@ -7761,9 +7971,9 @@
         <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>1681</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
@@ -7795,9 +8005,9 @@
         <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>1682</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
@@ -7829,9 +8039,9 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>1683</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
@@ -7863,9 +8073,9 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>1684</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
@@ -7897,9 +8107,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>1685</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
@@ -7931,9 +8141,9 @@
         <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>1686</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
@@ -7965,9 +8175,9 @@
         <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>1687</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
@@ -7999,9 +8209,9 @@
         <v>75</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>1688</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="1" t="s">
         <v>13</v>
       </c>
@@ -8033,9 +8243,9 @@
         <v>75</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>1689</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
@@ -8067,9 +8277,9 @@
         <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>1690</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="1" t="s">
         <v>13</v>
       </c>
@@ -8101,9 +8311,9 @@
         <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>1691</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
@@ -8135,9 +8345,9 @@
         <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>1692</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
@@ -8169,9 +8379,9 @@
         <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>1693</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
@@ -8203,9 +8413,9 @@
         <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>1694</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
@@ -8237,9 +8447,9 @@
         <v>75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>1693</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
@@ -8271,9 +8481,9 @@
         <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>1695</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="1" t="s">
         <v>13</v>
       </c>
@@ -8305,9 +8515,9 @@
         <v>75</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>1710</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="1" t="s">
         <v>13</v>
       </c>
@@ -8339,9 +8549,9 @@
         <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>1712</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
@@ -8373,9 +8583,9 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>1716</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
@@ -8407,9 +8617,9 @@
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>1722</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="1" t="s">
         <v>13</v>
       </c>
@@ -8441,9 +8651,9 @@
         <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>1724</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
@@ -8475,9 +8685,9 @@
         <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>1725</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
@@ -8509,9 +8719,9 @@
         <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>1726</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
@@ -8543,9 +8753,9 @@
         <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>1727</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="1" t="s">
         <v>13</v>
       </c>
@@ -8577,9 +8787,9 @@
         <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>1735</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="1" t="s">
         <v>13</v>
       </c>
@@ -8611,9 +8821,9 @@
         <v>75</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>1745</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
@@ -8645,9 +8855,9 @@
         <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>1746</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
@@ -8679,9 +8889,9 @@
         <v>75</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>1749</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
@@ -8713,9 +8923,9 @@
         <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>1750</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="1" t="s">
         <v>13</v>
       </c>
@@ -8747,9 +8957,9 @@
         <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>1751</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="1" t="s">
         <v>13</v>
       </c>
@@ -8781,9 +8991,9 @@
         <v>75</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>1752</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="1" t="s">
         <v>13</v>
       </c>
@@ -8815,9 +9025,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>1753</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
@@ -8849,9 +9059,9 @@
         <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>1754</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="1" t="s">
         <v>13</v>
       </c>
@@ -8883,9 +9093,9 @@
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>1755</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
@@ -8917,9 +9127,9 @@
         <v>75</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>1756</v>
+      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="1" t="s">
         <v>13</v>
       </c>
@@ -8951,9 +9161,9 @@
         <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>1782</v>
+      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
@@ -8985,9 +9195,9 @@
         <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>1787</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
@@ -9019,9 +9229,9 @@
         <v>75</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>1789</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="1" t="s">
         <v>13</v>
       </c>
@@ -9053,9 +9263,9 @@
         <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>1790</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
@@ -9087,9 +9297,9 @@
         <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>1791</v>
+      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
@@ -9121,9 +9331,9 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>1802</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
@@ -9155,9 +9365,9 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>1803</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
@@ -9189,9 +9399,9 @@
         <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>1804</v>
+      </c>
+      <c r="D78" s="2"/>
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
@@ -9223,9 +9433,9 @@
         <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>1805</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
@@ -9257,9 +9467,9 @@
         <v>75</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>1806</v>
+      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
@@ -9291,9 +9501,9 @@
         <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>1693</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
@@ -9325,9 +9535,9 @@
         <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>1807</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
@@ -9359,9 +9569,9 @@
         <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>1808</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
@@ -9393,9 +9603,9 @@
         <v>75</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>1814</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="1" t="s">
         <v>13</v>
       </c>
@@ -9427,9 +9637,9 @@
         <v>75</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>1821</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="1" t="s">
         <v>13</v>
       </c>
@@ -9461,9 +9671,9 @@
         <v>75</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>1841</v>
+      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
@@ -9495,9 +9705,9 @@
         <v>75</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>1842</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="1" t="s">
         <v>13</v>
       </c>
@@ -9529,9 +9739,9 @@
         <v>75</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>1846</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="1" t="s">
         <v>13</v>
       </c>
@@ -9563,9 +9773,9 @@
         <v>75</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>1848</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="1" t="s">
         <v>13</v>
       </c>
@@ -9597,9 +9807,9 @@
         <v>75</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>1855</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
@@ -9631,9 +9841,9 @@
         <v>75</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>1856</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
@@ -9665,9 +9875,9 @@
         <v>75</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>1781</v>
+      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
@@ -9701,7 +9911,7 @@
       <c r="C93" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
@@ -9735,7 +9945,7 @@
       <c r="C94" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
@@ -9769,7 +9979,7 @@
       <c r="C95" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
@@ -9803,7 +10013,7 @@
       <c r="C96" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
@@ -9837,7 +10047,7 @@
       <c r="C97" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1" t="s">
         <v>13</v>
       </c>
@@ -9857,7 +10067,7 @@
         <v>1226</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -9873,7 +10083,7 @@
       <c r="C98" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="1" t="s">
         <v>13</v>
       </c>
@@ -9907,7 +10117,7 @@
       <c r="C99" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="1" t="s">
         <v>13</v>
       </c>
@@ -9941,7 +10151,7 @@
       <c r="C100" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="1" t="s">
         <v>13</v>
       </c>
@@ -9975,7 +10185,7 @@
       <c r="C101" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="1" t="s">
         <v>13</v>
       </c>
@@ -10009,7 +10219,7 @@
       <c r="C102" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="1" t="s">
         <v>13</v>
       </c>
@@ -10041,9 +10251,9 @@
         <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>1631</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="1" t="s">
         <v>13</v>
       </c>
@@ -10075,9 +10285,9 @@
         <v>75</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>1632</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="1" t="s">
         <v>13</v>
       </c>
@@ -10109,9 +10319,9 @@
         <v>75</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>1634</v>
+      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="1" t="s">
         <v>13</v>
       </c>
@@ -10143,9 +10353,9 @@
         <v>75</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D106" s="1"/>
+        <v>1638</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="1" t="s">
         <v>13</v>
       </c>
@@ -10177,9 +10387,9 @@
         <v>75</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>1640</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="1" t="s">
         <v>13</v>
       </c>
@@ -10211,9 +10421,9 @@
         <v>75</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>1641</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="1" t="s">
         <v>13</v>
       </c>
@@ -10245,9 +10455,9 @@
         <v>75</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>1642</v>
+      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="1" t="s">
         <v>13</v>
       </c>
@@ -10279,9 +10489,9 @@
         <v>75</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>1654</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="1" t="s">
         <v>13</v>
       </c>
@@ -10313,9 +10523,9 @@
         <v>75</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>1655</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="1" t="s">
         <v>13</v>
       </c>
@@ -10347,9 +10557,9 @@
         <v>75</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>1658</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="1" t="s">
         <v>13</v>
       </c>
@@ -10381,9 +10591,9 @@
         <v>75</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D113" s="1"/>
+        <v>1659</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="1" t="s">
         <v>13</v>
       </c>
@@ -10415,9 +10625,9 @@
         <v>75</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>1662</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="1" t="s">
         <v>13</v>
       </c>
@@ -10449,9 +10659,9 @@
         <v>75</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>1668</v>
+      </c>
+      <c r="D115" s="2"/>
       <c r="E115" s="1" t="s">
         <v>13</v>
       </c>
@@ -10483,9 +10693,9 @@
         <v>75</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>1697</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="1" t="s">
         <v>13</v>
       </c>
@@ -10517,9 +10727,9 @@
         <v>75</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>1699</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="1" t="s">
         <v>13</v>
       </c>
@@ -10551,9 +10761,9 @@
         <v>75</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D118" s="1"/>
+        <v>1701</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" s="1" t="s">
         <v>13</v>
       </c>
@@ -10585,9 +10795,9 @@
         <v>75</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>1703</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
@@ -10619,9 +10829,9 @@
         <v>75</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D120" s="1"/>
+        <v>1706</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
@@ -10653,9 +10863,9 @@
         <v>75</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>1708</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="1" t="s">
         <v>13</v>
       </c>
@@ -10687,9 +10897,9 @@
         <v>75</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D122" s="1"/>
+        <v>1711</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="1" t="s">
         <v>13</v>
       </c>
@@ -10721,9 +10931,9 @@
         <v>75</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D123" s="1"/>
+        <v>1714</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="1" t="s">
         <v>13</v>
       </c>
@@ -10755,9 +10965,9 @@
         <v>75</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D124" s="1"/>
+        <v>1715</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="1" t="s">
         <v>13</v>
       </c>
@@ -10789,9 +10999,9 @@
         <v>75</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D125" s="1"/>
+        <v>1717</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="1" t="s">
         <v>13</v>
       </c>
@@ -10823,9 +11033,9 @@
         <v>75</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D126" s="1"/>
+        <v>1721</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
@@ -10857,9 +11067,9 @@
         <v>75</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D127" s="1"/>
+        <v>1723</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
@@ -10891,9 +11101,9 @@
         <v>75</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D128" s="1"/>
+        <v>1728</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="1" t="s">
         <v>13</v>
       </c>
@@ -10925,9 +11135,9 @@
         <v>75</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D129" s="1"/>
+        <v>1729</v>
+      </c>
+      <c r="D129" s="2"/>
       <c r="E129" s="1" t="s">
         <v>13</v>
       </c>
@@ -10959,9 +11169,9 @@
         <v>75</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D130" s="1"/>
+        <v>1730</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="1" t="s">
         <v>13</v>
       </c>
@@ -10993,9 +11203,9 @@
         <v>75</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D131" s="1"/>
+        <v>1731</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="1" t="s">
         <v>13</v>
       </c>
@@ -11027,9 +11237,9 @@
         <v>75</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D132" s="1"/>
+        <v>1732</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="1" t="s">
         <v>13</v>
       </c>
@@ -11061,9 +11271,9 @@
         <v>75</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D133" s="1"/>
+        <v>1733</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="1" t="s">
         <v>13</v>
       </c>
@@ -11095,9 +11305,9 @@
         <v>75</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>1747</v>
+      </c>
+      <c r="D134" s="2"/>
       <c r="E134" s="1" t="s">
         <v>13</v>
       </c>
@@ -11129,9 +11339,9 @@
         <v>75</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D135" s="1"/>
+        <v>1757</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
@@ -11163,9 +11373,9 @@
         <v>75</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>1761</v>
+      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="1" t="s">
         <v>13</v>
       </c>
@@ -11197,9 +11407,9 @@
         <v>75</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D137" s="1"/>
+        <v>1762</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="1" t="s">
         <v>13</v>
       </c>
@@ -11231,9 +11441,9 @@
         <v>75</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D138" s="1"/>
+        <v>1764</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="1" t="s">
         <v>13</v>
       </c>
@@ -11265,9 +11475,9 @@
         <v>75</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>1765</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="1" t="s">
         <v>13</v>
       </c>
@@ -11299,9 +11509,9 @@
         <v>75</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>1766</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="1" t="s">
         <v>13</v>
       </c>
@@ -11333,9 +11543,9 @@
         <v>75</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>1767</v>
+      </c>
+      <c r="D141" s="2"/>
       <c r="E141" s="1" t="s">
         <v>13</v>
       </c>
@@ -11367,9 +11577,9 @@
         <v>75</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D142" s="1"/>
+        <v>1769</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="1" t="s">
         <v>13</v>
       </c>
@@ -11401,9 +11611,9 @@
         <v>75</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D143" s="1"/>
+        <v>1776</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="1" t="s">
         <v>13</v>
       </c>
@@ -11435,9 +11645,9 @@
         <v>75</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>1778</v>
+      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="1" t="s">
         <v>13</v>
       </c>
@@ -11469,9 +11679,9 @@
         <v>75</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>1779</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="1" t="s">
         <v>13</v>
       </c>
@@ -11503,9 +11713,9 @@
         <v>75</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>1784</v>
+      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="1" t="s">
         <v>13</v>
       </c>
@@ -11537,9 +11747,9 @@
         <v>75</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>1788</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="1" t="s">
         <v>13</v>
       </c>
@@ -11571,9 +11781,9 @@
         <v>75</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>1793</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="1" t="s">
         <v>13</v>
       </c>
@@ -11605,9 +11815,9 @@
         <v>75</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D149" s="1"/>
+        <v>1794</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="1" t="s">
         <v>13</v>
       </c>
@@ -11639,9 +11849,9 @@
         <v>75</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>1795</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="1" t="s">
         <v>13</v>
       </c>
@@ -11673,9 +11883,9 @@
         <v>75</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>1796</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="1" t="s">
         <v>13</v>
       </c>
@@ -11707,9 +11917,9 @@
         <v>75</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D152" s="1"/>
+        <v>1812</v>
+      </c>
+      <c r="D152" s="2"/>
       <c r="E152" s="1" t="s">
         <v>13</v>
       </c>
@@ -11741,9 +11951,9 @@
         <v>75</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D153" s="1"/>
+        <v>1813</v>
+      </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
@@ -11775,9 +11985,9 @@
         <v>75</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D154" s="1"/>
+        <v>1817</v>
+      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="1" t="s">
         <v>13</v>
       </c>
@@ -11809,9 +12019,9 @@
         <v>75</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D155" s="1"/>
+        <v>1819</v>
+      </c>
+      <c r="D155" s="2"/>
       <c r="E155" s="1" t="s">
         <v>13</v>
       </c>
@@ -11843,9 +12053,9 @@
         <v>75</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D156" s="1"/>
+        <v>1820</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
@@ -11877,9 +12087,9 @@
         <v>75</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>1822</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="1" t="s">
         <v>13</v>
       </c>
@@ -11911,9 +12121,9 @@
         <v>75</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D158" s="1"/>
+        <v>1823</v>
+      </c>
+      <c r="D158" s="2"/>
       <c r="E158" s="1" t="s">
         <v>13</v>
       </c>
@@ -11945,9 +12155,9 @@
         <v>75</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D159" s="1"/>
+        <v>1824</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="1" t="s">
         <v>13</v>
       </c>
@@ -11979,9 +12189,9 @@
         <v>75</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D160" s="1"/>
+        <v>1827</v>
+      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="1" t="s">
         <v>13</v>
       </c>
@@ -12013,9 +12223,9 @@
         <v>75</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D161" s="1"/>
+        <v>1829</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
@@ -12047,9 +12257,9 @@
         <v>75</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D162" s="1"/>
+        <v>1830</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="1" t="s">
         <v>13</v>
       </c>
@@ -12081,9 +12291,9 @@
         <v>75</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D163" s="1"/>
+        <v>1831</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
@@ -12115,9 +12325,9 @@
         <v>75</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D164" s="1"/>
+        <v>1833</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" s="1" t="s">
         <v>13</v>
       </c>
@@ -12149,9 +12359,9 @@
         <v>75</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D165" s="1"/>
+        <v>1834</v>
+      </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="1" t="s">
         <v>13</v>
       </c>
@@ -12183,9 +12393,9 @@
         <v>75</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D166" s="1"/>
+        <v>1836</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
@@ -12217,9 +12427,9 @@
         <v>75</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D167" s="1"/>
+        <v>1837</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="1" t="s">
         <v>13</v>
       </c>
@@ -12251,9 +12461,9 @@
         <v>75</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D168" s="1"/>
+        <v>1844</v>
+      </c>
+      <c r="D168" s="2"/>
       <c r="E168" s="1" t="s">
         <v>13</v>
       </c>
@@ -12285,9 +12495,9 @@
         <v>75</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D169" s="1"/>
+        <v>1847</v>
+      </c>
+      <c r="D169" s="2"/>
       <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
@@ -12319,9 +12529,9 @@
         <v>75</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D170" s="1"/>
+        <v>1849</v>
+      </c>
+      <c r="D170" s="2"/>
       <c r="E170" s="1" t="s">
         <v>13</v>
       </c>
@@ -12353,9 +12563,9 @@
         <v>75</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D171" s="1"/>
+        <v>1850</v>
+      </c>
+      <c r="D171" s="2"/>
       <c r="E171" s="1" t="s">
         <v>13</v>
       </c>
@@ -12387,9 +12597,9 @@
         <v>75</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D172" s="1"/>
+        <v>1852</v>
+      </c>
+      <c r="D172" s="2"/>
       <c r="E172" s="1" t="s">
         <v>13</v>
       </c>
@@ -12421,9 +12631,9 @@
         <v>75</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D173" s="1"/>
+        <v>1853</v>
+      </c>
+      <c r="D173" s="2"/>
       <c r="E173" s="1" t="s">
         <v>13</v>
       </c>
@@ -12455,9 +12665,9 @@
         <v>75</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D174" s="1"/>
+        <v>1854</v>
+      </c>
+      <c r="D174" s="2"/>
       <c r="E174" s="1" t="s">
         <v>13</v>
       </c>
@@ -12489,9 +12699,9 @@
         <v>75</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>1857</v>
+      </c>
+      <c r="D175" s="2"/>
       <c r="E175" s="1" t="s">
         <v>13</v>
       </c>
@@ -12523,9 +12733,9 @@
         <v>75</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="D176" s="1"/>
+        <v>1861</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" s="1" t="s">
         <v>13</v>
       </c>
@@ -12559,7 +12769,7 @@
       <c r="C177" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="1" t="s">
         <v>13</v>
       </c>
@@ -12593,7 +12803,7 @@
       <c r="C178" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="2"/>
       <c r="E178" s="1" t="s">
         <v>13</v>
       </c>
@@ -12627,7 +12837,7 @@
       <c r="C179" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="1" t="s">
         <v>13</v>
       </c>
@@ -12661,7 +12871,7 @@
       <c r="C180" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="1" t="s">
         <v>13</v>
       </c>
@@ -12695,7 +12905,7 @@
       <c r="C181" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="1" t="s">
         <v>13</v>
       </c>
@@ -12727,9 +12937,9 @@
         <v>75</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D182" s="1"/>
+        <v>1930</v>
+      </c>
+      <c r="D182" s="2"/>
       <c r="E182" s="1" t="s">
         <v>13</v>
       </c>
@@ -12761,9 +12971,9 @@
         <v>75</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D183" s="1"/>
+        <v>1643</v>
+      </c>
+      <c r="D183" s="2"/>
       <c r="E183" s="1" t="s">
         <v>13</v>
       </c>
@@ -12795,9 +13005,9 @@
         <v>75</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D184" s="1"/>
+        <v>1644</v>
+      </c>
+      <c r="D184" s="2"/>
       <c r="E184" s="1" t="s">
         <v>13</v>
       </c>
@@ -12829,9 +13039,9 @@
         <v>75</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>1647</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" s="1" t="s">
         <v>13</v>
       </c>
@@ -12863,9 +13073,9 @@
         <v>75</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D186" s="1"/>
+        <v>1650</v>
+      </c>
+      <c r="D186" s="2"/>
       <c r="E186" s="1" t="s">
         <v>13</v>
       </c>
@@ -12897,9 +13107,9 @@
         <v>75</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D187" s="1"/>
+        <v>1663</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" s="1" t="s">
         <v>13</v>
       </c>
@@ -12931,9 +13141,9 @@
         <v>75</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D188" s="1"/>
+        <v>1670</v>
+      </c>
+      <c r="D188" s="2"/>
       <c r="E188" s="1" t="s">
         <v>13</v>
       </c>
@@ -12965,9 +13175,9 @@
         <v>75</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D189" s="1"/>
+        <v>1671</v>
+      </c>
+      <c r="D189" s="2"/>
       <c r="E189" s="1" t="s">
         <v>13</v>
       </c>
@@ -12999,9 +13209,9 @@
         <v>75</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D190" s="1"/>
+        <v>1672</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" s="1" t="s">
         <v>13</v>
       </c>
@@ -13033,9 +13243,9 @@
         <v>75</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D191" s="1"/>
+        <v>1673</v>
+      </c>
+      <c r="D191" s="2"/>
       <c r="E191" s="1" t="s">
         <v>13</v>
       </c>
@@ -13067,9 +13277,9 @@
         <v>75</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D192" s="1"/>
+        <v>1674</v>
+      </c>
+      <c r="D192" s="2"/>
       <c r="E192" s="1" t="s">
         <v>13</v>
       </c>
@@ -13101,9 +13311,9 @@
         <v>75</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D193" s="1"/>
+        <v>1675</v>
+      </c>
+      <c r="D193" s="2"/>
       <c r="E193" s="1" t="s">
         <v>13</v>
       </c>
@@ -13135,9 +13345,9 @@
         <v>75</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D194" s="1"/>
+        <v>1676</v>
+      </c>
+      <c r="D194" s="2"/>
       <c r="E194" s="1" t="s">
         <v>13</v>
       </c>
@@ -13169,9 +13379,9 @@
         <v>75</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D195" s="1"/>
+        <v>1677</v>
+      </c>
+      <c r="D195" s="2"/>
       <c r="E195" s="1" t="s">
         <v>13</v>
       </c>
@@ -13203,9 +13413,9 @@
         <v>75</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D196" s="1"/>
+        <v>1678</v>
+      </c>
+      <c r="D196" s="2"/>
       <c r="E196" s="1" t="s">
         <v>13</v>
       </c>
@@ -13237,9 +13447,9 @@
         <v>75</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D197" s="1"/>
+        <v>1696</v>
+      </c>
+      <c r="D197" s="2"/>
       <c r="E197" s="1" t="s">
         <v>13</v>
       </c>
@@ -13271,9 +13481,9 @@
         <v>75</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D198" s="1"/>
+        <v>1698</v>
+      </c>
+      <c r="D198" s="2"/>
       <c r="E198" s="1" t="s">
         <v>13</v>
       </c>
@@ -13305,9 +13515,9 @@
         <v>75</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D199" s="1"/>
+        <v>1700</v>
+      </c>
+      <c r="D199" s="2"/>
       <c r="E199" s="1" t="s">
         <v>13</v>
       </c>
@@ -13339,9 +13549,9 @@
         <v>75</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D200" s="1"/>
+        <v>1702</v>
+      </c>
+      <c r="D200" s="2"/>
       <c r="E200" s="1" t="s">
         <v>13</v>
       </c>
@@ -13373,9 +13583,9 @@
         <v>75</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D201" s="1"/>
+        <v>1704</v>
+      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="1" t="s">
         <v>13</v>
       </c>
@@ -13407,9 +13617,9 @@
         <v>75</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D202" s="1"/>
+        <v>1705</v>
+      </c>
+      <c r="D202" s="2"/>
       <c r="E202" s="1" t="s">
         <v>13</v>
       </c>
@@ -13441,9 +13651,9 @@
         <v>75</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D203" s="1"/>
+        <v>1707</v>
+      </c>
+      <c r="D203" s="2"/>
       <c r="E203" s="1" t="s">
         <v>13</v>
       </c>
@@ -13475,9 +13685,9 @@
         <v>75</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D204" s="1"/>
+        <v>1709</v>
+      </c>
+      <c r="D204" s="2"/>
       <c r="E204" s="1" t="s">
         <v>13</v>
       </c>
@@ -13509,9 +13719,9 @@
         <v>75</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D205" s="1"/>
+        <v>1713</v>
+      </c>
+      <c r="D205" s="2"/>
       <c r="E205" s="1" t="s">
         <v>13</v>
       </c>
@@ -13543,9 +13753,9 @@
         <v>75</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D206" s="1"/>
+        <v>1736</v>
+      </c>
+      <c r="D206" s="2"/>
       <c r="E206" s="1" t="s">
         <v>13</v>
       </c>
@@ -13577,9 +13787,9 @@
         <v>75</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>1737</v>
+      </c>
+      <c r="D207" s="2"/>
       <c r="E207" s="1" t="s">
         <v>13</v>
       </c>
@@ -13611,9 +13821,9 @@
         <v>75</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D208" s="1"/>
+        <v>1739</v>
+      </c>
+      <c r="D208" s="2"/>
       <c r="E208" s="1" t="s">
         <v>13</v>
       </c>
@@ -13645,9 +13855,9 @@
         <v>75</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D209" s="1"/>
+        <v>1740</v>
+      </c>
+      <c r="D209" s="2"/>
       <c r="E209" s="1" t="s">
         <v>13</v>
       </c>
@@ -13679,9 +13889,9 @@
         <v>75</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D210" s="1"/>
+        <v>1741</v>
+      </c>
+      <c r="D210" s="2"/>
       <c r="E210" s="1" t="s">
         <v>13</v>
       </c>
@@ -13713,9 +13923,9 @@
         <v>75</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D211" s="1"/>
+        <v>1744</v>
+      </c>
+      <c r="D211" s="2"/>
       <c r="E211" s="1" t="s">
         <v>13</v>
       </c>
@@ -13747,9 +13957,9 @@
         <v>75</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D212" s="1"/>
+        <v>1758</v>
+      </c>
+      <c r="D212" s="2"/>
       <c r="E212" s="1" t="s">
         <v>13</v>
       </c>
@@ -13781,9 +13991,9 @@
         <v>75</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D213" s="1"/>
+        <v>1759</v>
+      </c>
+      <c r="D213" s="2"/>
       <c r="E213" s="1" t="s">
         <v>13</v>
       </c>
@@ -13815,9 +14025,9 @@
         <v>75</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D214" s="1"/>
+        <v>1760</v>
+      </c>
+      <c r="D214" s="2"/>
       <c r="E214" s="1" t="s">
         <v>13</v>
       </c>
@@ -13849,9 +14059,9 @@
         <v>75</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D215" s="1"/>
+        <v>1763</v>
+      </c>
+      <c r="D215" s="2"/>
       <c r="E215" s="1" t="s">
         <v>13</v>
       </c>
@@ -13883,9 +14093,9 @@
         <v>75</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D216" s="1"/>
+        <v>1768</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" s="1" t="s">
         <v>13</v>
       </c>
@@ -13917,9 +14127,9 @@
         <v>75</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D217" s="1"/>
+        <v>1771</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" s="1" t="s">
         <v>13</v>
       </c>
@@ -13951,9 +14161,9 @@
         <v>75</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D218" s="1"/>
+        <v>1783</v>
+      </c>
+      <c r="D218" s="2"/>
       <c r="E218" s="1" t="s">
         <v>13</v>
       </c>
@@ -13985,9 +14195,9 @@
         <v>75</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D219" s="1"/>
+        <v>1785</v>
+      </c>
+      <c r="D219" s="2"/>
       <c r="E219" s="1" t="s">
         <v>13</v>
       </c>
@@ -14019,9 +14229,9 @@
         <v>75</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D220" s="1"/>
+        <v>1786</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" s="1" t="s">
         <v>13</v>
       </c>
@@ -14053,9 +14263,9 @@
         <v>75</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D221" s="1"/>
+        <v>1792</v>
+      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="1" t="s">
         <v>13</v>
       </c>
@@ -14087,9 +14297,9 @@
         <v>75</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D222" s="1"/>
+        <v>1797</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" s="1" t="s">
         <v>13</v>
       </c>
@@ -14121,9 +14331,9 @@
         <v>75</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D223" s="1"/>
+        <v>1798</v>
+      </c>
+      <c r="D223" s="2"/>
       <c r="E223" s="1" t="s">
         <v>13</v>
       </c>
@@ -14155,9 +14365,9 @@
         <v>75</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D224" s="1"/>
+        <v>1800</v>
+      </c>
+      <c r="D224" s="2"/>
       <c r="E224" s="1" t="s">
         <v>13</v>
       </c>
@@ -14189,9 +14399,9 @@
         <v>75</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D225" s="1"/>
+        <v>1809</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" s="1" t="s">
         <v>13</v>
       </c>
@@ -14223,9 +14433,9 @@
         <v>75</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D226" s="1"/>
+        <v>1810</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="1" t="s">
         <v>13</v>
       </c>
@@ -14257,9 +14467,9 @@
         <v>75</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D227" s="1"/>
+        <v>1811</v>
+      </c>
+      <c r="D227" s="2"/>
       <c r="E227" s="1" t="s">
         <v>13</v>
       </c>
@@ -14291,9 +14501,9 @@
         <v>75</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D228" s="1"/>
+        <v>1828</v>
+      </c>
+      <c r="D228" s="2"/>
       <c r="E228" s="1" t="s">
         <v>13</v>
       </c>
@@ -14325,9 +14535,9 @@
         <v>75</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D229" s="1"/>
+        <v>1835</v>
+      </c>
+      <c r="D229" s="2"/>
       <c r="E229" s="1" t="s">
         <v>13</v>
       </c>
@@ -14359,9 +14569,9 @@
         <v>75</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D230" s="1"/>
+        <v>1839</v>
+      </c>
+      <c r="D230" s="2"/>
       <c r="E230" s="1" t="s">
         <v>13</v>
       </c>
@@ -14369,13 +14579,13 @@
         <v>5</v>
       </c>
       <c r="G230" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="I230" s="2" t="s">
         <v>1917</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>1918</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>1502</v>
@@ -14393,9 +14603,9 @@
         <v>75</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D231" s="1"/>
+        <v>1858</v>
+      </c>
+      <c r="D231" s="2"/>
       <c r="E231" s="1" t="s">
         <v>13</v>
       </c>
@@ -14427,9 +14637,9 @@
         <v>75</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D232" s="1"/>
+        <v>1859</v>
+      </c>
+      <c r="D232" s="2"/>
       <c r="E232" s="1" t="s">
         <v>13</v>
       </c>
@@ -14461,9 +14671,9 @@
         <v>75</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D233" s="1"/>
+        <v>1862</v>
+      </c>
+      <c r="D233" s="2"/>
       <c r="E233" s="1" t="s">
         <v>13</v>
       </c>
@@ -14495,9 +14705,9 @@
         <v>75</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D234" s="1"/>
+        <v>1863</v>
+      </c>
+      <c r="D234" s="2"/>
       <c r="E234" s="1" t="s">
         <v>13</v>
       </c>
@@ -14529,9 +14739,9 @@
         <v>75</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D235" s="1"/>
+        <v>1864</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" s="1" t="s">
         <v>13</v>
       </c>
@@ -14563,9 +14773,9 @@
         <v>75</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D236" s="1"/>
+        <v>1865</v>
+      </c>
+      <c r="D236" s="2"/>
       <c r="E236" s="1" t="s">
         <v>13</v>
       </c>
@@ -14597,9 +14807,9 @@
         <v>75</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D237" s="1"/>
+        <v>1866</v>
+      </c>
+      <c r="D237" s="2"/>
       <c r="E237" s="1" t="s">
         <v>13</v>
       </c>
@@ -14631,9 +14841,9 @@
         <v>75</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D238" s="1"/>
+        <v>1867</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="1" t="s">
         <v>13</v>
       </c>
@@ -14665,9 +14875,9 @@
         <v>75</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D239" s="1"/>
+        <v>1868</v>
+      </c>
+      <c r="D239" s="2"/>
       <c r="E239" s="1" t="s">
         <v>13</v>
       </c>
@@ -14699,9 +14909,9 @@
         <v>75</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D240" s="1"/>
+        <v>1869</v>
+      </c>
+      <c r="D240" s="2"/>
       <c r="E240" s="1" t="s">
         <v>13</v>
       </c>
@@ -14733,9 +14943,9 @@
         <v>75</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D241" s="1"/>
+        <v>1870</v>
+      </c>
+      <c r="D241" s="2"/>
       <c r="E241" s="1" t="s">
         <v>13</v>
       </c>
@@ -14767,9 +14977,9 @@
         <v>75</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D242" s="1"/>
+        <v>1871</v>
+      </c>
+      <c r="D242" s="2"/>
       <c r="E242" s="1" t="s">
         <v>13</v>
       </c>
@@ -14803,7 +15013,7 @@
       <c r="C243" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="D243" s="1"/>
+      <c r="D243" s="2"/>
       <c r="E243" s="1" t="s">
         <v>13</v>
       </c>
@@ -14835,9 +15045,9 @@
         <v>75</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D244" s="1"/>
+        <v>1645</v>
+      </c>
+      <c r="D244" s="2"/>
       <c r="E244" s="1" t="s">
         <v>13</v>
       </c>
@@ -14869,9 +15079,9 @@
         <v>75</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D245" s="1"/>
+        <v>1648</v>
+      </c>
+      <c r="D245" s="2"/>
       <c r="E245" s="1" t="s">
         <v>13</v>
       </c>
@@ -14903,9 +15113,9 @@
         <v>75</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D246" s="1"/>
+        <v>1649</v>
+      </c>
+      <c r="D246" s="2"/>
       <c r="E246" s="1" t="s">
         <v>13</v>
       </c>
@@ -14937,9 +15147,9 @@
         <v>75</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D247" s="1"/>
+        <v>1666</v>
+      </c>
+      <c r="D247" s="2"/>
       <c r="E247" s="1" t="s">
         <v>13</v>
       </c>
@@ -14971,9 +15181,9 @@
         <v>75</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D248" s="1"/>
+        <v>1742</v>
+      </c>
+      <c r="D248" s="2"/>
       <c r="E248" s="1" t="s">
         <v>13</v>
       </c>
@@ -15005,9 +15215,9 @@
         <v>75</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D249" s="1"/>
+        <v>1816</v>
+      </c>
+      <c r="D249" s="2"/>
       <c r="E249" s="1" t="s">
         <v>13</v>
       </c>
@@ -15039,9 +15249,9 @@
         <v>75</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D250" s="1"/>
+        <v>1840</v>
+      </c>
+      <c r="D250" s="2"/>
       <c r="E250" s="1" t="s">
         <v>13</v>
       </c>
@@ -15073,9 +15283,9 @@
         <v>75</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D251" s="1"/>
+        <v>1851</v>
+      </c>
+      <c r="D251" s="2"/>
       <c r="E251" s="1" t="s">
         <v>13</v>
       </c>
@@ -15107,9 +15317,9 @@
         <v>75</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D252" s="1"/>
+        <v>1639</v>
+      </c>
+      <c r="D252" s="2"/>
       <c r="E252" s="1" t="s">
         <v>13</v>
       </c>
@@ -15141,9 +15351,9 @@
         <v>75</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D253" s="1"/>
+        <v>1652</v>
+      </c>
+      <c r="D253" s="2"/>
       <c r="E253" s="1" t="s">
         <v>13</v>
       </c>
@@ -15175,9 +15385,9 @@
         <v>75</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D254" s="1"/>
+        <v>1780</v>
+      </c>
+      <c r="D254" s="2"/>
       <c r="E254" s="1" t="s">
         <v>13</v>
       </c>
@@ -15209,9 +15419,9 @@
         <v>75</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D255" s="1"/>
+        <v>1826</v>
+      </c>
+      <c r="D255" s="2"/>
       <c r="E255" s="1" t="s">
         <v>13</v>
       </c>
@@ -15243,9 +15453,9 @@
         <v>75</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D256" s="1"/>
+        <v>1799</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" s="1" t="s">
         <v>13</v>
       </c>
@@ -15277,9 +15487,9 @@
         <v>75</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D257" s="1"/>
+        <v>1748</v>
+      </c>
+      <c r="D257" s="2"/>
       <c r="E257" s="1" t="s">
         <v>13</v>
       </c>
@@ -15313,7 +15523,7 @@
       <c r="C258" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="2"/>
       <c r="E258" s="1" t="s">
         <v>13</v>
       </c>
@@ -15345,9 +15555,9 @@
         <v>75</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D259" s="1"/>
+        <v>1720</v>
+      </c>
+      <c r="D259" s="2"/>
       <c r="E259" s="1" t="s">
         <v>13</v>
       </c>
@@ -15379,9 +15589,9 @@
         <v>75</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D260" s="1"/>
+        <v>1656</v>
+      </c>
+      <c r="D260" s="2"/>
       <c r="E260" s="1" t="s">
         <v>13</v>
       </c>
@@ -15413,9 +15623,9 @@
         <v>75</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D261" s="1"/>
+        <v>1719</v>
+      </c>
+      <c r="D261" s="2"/>
       <c r="E261" s="1" t="s">
         <v>13</v>
       </c>
@@ -15447,9 +15657,9 @@
         <v>75</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D262" s="1"/>
+        <v>1773</v>
+      </c>
+      <c r="D262" s="2"/>
       <c r="E262" s="1" t="s">
         <v>13</v>
       </c>
@@ -15481,9 +15691,9 @@
         <v>75</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D263" s="1"/>
+        <v>1775</v>
+      </c>
+      <c r="D263" s="2"/>
       <c r="E263" s="1" t="s">
         <v>13</v>
       </c>
@@ -15515,9 +15725,9 @@
         <v>75</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D264" s="1"/>
+        <v>1815</v>
+      </c>
+      <c r="D264" s="2"/>
       <c r="E264" s="1" t="s">
         <v>13</v>
       </c>
@@ -15549,9 +15759,9 @@
         <v>75</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D265" s="1"/>
+        <v>1825</v>
+      </c>
+      <c r="D265" s="2"/>
       <c r="E265" s="1" t="s">
         <v>13</v>
       </c>
@@ -15583,9 +15793,9 @@
         <v>75</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D266" s="1"/>
+        <v>1838</v>
+      </c>
+      <c r="D266" s="2"/>
       <c r="E266" s="1" t="s">
         <v>13</v>
       </c>
@@ -15617,9 +15827,9 @@
         <v>75</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D267" s="1"/>
+        <v>1633</v>
+      </c>
+      <c r="D267" s="2"/>
       <c r="E267" s="1" t="s">
         <v>13</v>
       </c>
@@ -15653,7 +15863,7 @@
       <c r="C268" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="D268" s="1"/>
+      <c r="D268" s="2"/>
       <c r="E268" s="1" t="s">
         <v>13</v>
       </c>
@@ -15685,9 +15895,9 @@
         <v>75</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D269" s="1"/>
+        <v>1774</v>
+      </c>
+      <c r="D269" s="2"/>
       <c r="E269" s="1" t="s">
         <v>13</v>
       </c>
@@ -15719,9 +15929,9 @@
         <v>75</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D270" s="1"/>
+        <v>1843</v>
+      </c>
+      <c r="D270" s="2"/>
       <c r="E270" s="1" t="s">
         <v>13</v>
       </c>
@@ -15753,9 +15963,9 @@
         <v>75</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D271" s="1"/>
+        <v>1845</v>
+      </c>
+      <c r="D271" s="2"/>
       <c r="E271" s="1" t="s">
         <v>13</v>
       </c>
@@ -15787,9 +15997,9 @@
         <v>75</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D272" s="1"/>
+        <v>1635</v>
+      </c>
+      <c r="D272" s="2"/>
       <c r="E272" s="1" t="s">
         <v>13</v>
       </c>
@@ -15821,9 +16031,9 @@
         <v>75</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D273" s="1"/>
+        <v>1636</v>
+      </c>
+      <c r="D273" s="2"/>
       <c r="E273" s="1" t="s">
         <v>13</v>
       </c>
@@ -15855,9 +16065,9 @@
         <v>75</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D274" s="1"/>
+        <v>1653</v>
+      </c>
+      <c r="D274" s="2"/>
       <c r="E274" s="1" t="s">
         <v>13</v>
       </c>
@@ -15889,9 +16099,9 @@
         <v>75</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D275" s="1"/>
+        <v>1664</v>
+      </c>
+      <c r="D275" s="2"/>
       <c r="E275" s="1" t="s">
         <v>13</v>
       </c>
@@ -15923,9 +16133,9 @@
         <v>75</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D276" s="1"/>
+        <v>1665</v>
+      </c>
+      <c r="D276" s="2"/>
       <c r="E276" s="1" t="s">
         <v>13</v>
       </c>
@@ -15957,9 +16167,9 @@
         <v>75</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D277" s="1"/>
+        <v>1738</v>
+      </c>
+      <c r="D277" s="2"/>
       <c r="E277" s="1" t="s">
         <v>13</v>
       </c>
@@ -15991,9 +16201,9 @@
         <v>75</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D278" s="1"/>
+        <v>1743</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" s="1" t="s">
         <v>13</v>
       </c>
@@ -16025,9 +16235,9 @@
         <v>75</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D279" s="1"/>
+        <v>1770</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" s="1" t="s">
         <v>13</v>
       </c>
@@ -16059,9 +16269,9 @@
         <v>75</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D280" s="1"/>
+        <v>1818</v>
+      </c>
+      <c r="D280" s="2"/>
       <c r="E280" s="1" t="s">
         <v>13</v>
       </c>
@@ -16093,9 +16303,9 @@
         <v>75</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D281" s="1"/>
+        <v>1832</v>
+      </c>
+      <c r="D281" s="2"/>
       <c r="E281" s="1" t="s">
         <v>13</v>
       </c>
@@ -16127,9 +16337,9 @@
         <v>75</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D282" s="1"/>
+        <v>1630</v>
+      </c>
+      <c r="D282" s="2"/>
       <c r="E282" s="1" t="s">
         <v>13</v>
       </c>
@@ -16161,9 +16371,9 @@
         <v>75</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D283" s="1"/>
+        <v>1661</v>
+      </c>
+      <c r="D283" s="2"/>
       <c r="E283" s="1" t="s">
         <v>13</v>
       </c>
@@ -16195,9 +16405,9 @@
         <v>75</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D284" s="1"/>
+        <v>1667</v>
+      </c>
+      <c r="D284" s="2"/>
       <c r="E284" s="1" t="s">
         <v>13</v>
       </c>
@@ -16229,9 +16439,9 @@
         <v>75</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D285" s="1"/>
+        <v>1669</v>
+      </c>
+      <c r="D285" s="2"/>
       <c r="E285" s="1" t="s">
         <v>13</v>
       </c>
@@ -16263,9 +16473,9 @@
         <v>75</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D286" s="1"/>
+        <v>1718</v>
+      </c>
+      <c r="D286" s="2"/>
       <c r="E286" s="1" t="s">
         <v>13</v>
       </c>
@@ -16297,9 +16507,9 @@
         <v>75</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D287" s="1"/>
+        <v>1777</v>
+      </c>
+      <c r="D287" s="2"/>
       <c r="E287" s="1" t="s">
         <v>13</v>
       </c>
@@ -16331,9 +16541,9 @@
         <v>75</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D288" s="1"/>
+        <v>1860</v>
+      </c>
+      <c r="D288" s="2"/>
       <c r="E288" s="1" t="s">
         <v>13</v>
       </c>
@@ -16367,7 +16577,7 @@
       <c r="C289" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D289" s="1"/>
+      <c r="D289" s="2"/>
       <c r="E289" s="1" t="s">
         <v>13</v>
       </c>
@@ -16399,9 +16609,9 @@
         <v>75</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D290" s="1"/>
+        <v>1679</v>
+      </c>
+      <c r="D290" s="2"/>
       <c r="E290" s="1" t="s">
         <v>13</v>
       </c>
@@ -16433,9 +16643,9 @@
         <v>75</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D291" s="1"/>
+        <v>1801</v>
+      </c>
+      <c r="D291" s="2"/>
       <c r="E291" s="1" t="s">
         <v>13</v>
       </c>
@@ -16467,9 +16677,9 @@
         <v>75</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D292" s="1"/>
+        <v>1734</v>
+      </c>
+      <c r="D292" s="2"/>
       <c r="E292" s="1" t="s">
         <v>13</v>
       </c>
@@ -16501,9 +16711,9 @@
         <v>75</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D293" s="1"/>
+        <v>1909</v>
+      </c>
+      <c r="D293" s="2"/>
       <c r="E293" s="1" t="s">
         <v>13</v>
       </c>
@@ -16535,9 +16745,9 @@
         <v>75</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D294" s="1"/>
+        <v>1910</v>
+      </c>
+      <c r="D294" s="2"/>
       <c r="E294" s="1" t="s">
         <v>13</v>
       </c>
@@ -16571,7 +16781,7 @@
       <c r="C295" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="D295" s="1"/>
+      <c r="D295" s="2"/>
       <c r="E295" s="1" t="s">
         <v>13</v>
       </c>
@@ -16605,7 +16815,7 @@
       <c r="C296" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="D296" s="1"/>
+      <c r="D296" s="2"/>
       <c r="E296" s="1" t="s">
         <v>13</v>
       </c>
@@ -16639,7 +16849,7 @@
       <c r="C297" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="D297" s="1"/>
+      <c r="D297" s="2"/>
       <c r="E297" s="1" t="s">
         <v>13</v>
       </c>
@@ -16673,7 +16883,7 @@
       <c r="C298" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="2"/>
       <c r="E298" s="1" t="s">
         <v>13</v>
       </c>
@@ -16707,7 +16917,7 @@
       <c r="C299" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="2"/>
       <c r="E299" s="1" t="s">
         <v>13</v>
       </c>
@@ -16741,7 +16951,7 @@
       <c r="C300" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D300" s="2"/>
       <c r="E300" s="1" t="s">
         <v>13</v>
       </c>
@@ -16775,9 +16985,9 @@
         <v>75</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D301" s="1"/>
+        <v>1901</v>
+      </c>
+      <c r="D301" s="2"/>
       <c r="E301" s="1" t="s">
         <v>13</v>
       </c>
@@ -16809,9 +17019,9 @@
         <v>75</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D302" s="1"/>
+        <v>1875</v>
+      </c>
+      <c r="D302" s="2"/>
       <c r="E302" s="1" t="s">
         <v>13</v>
       </c>
@@ -16845,7 +17055,7 @@
       <c r="C303" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="D303" s="1"/>
+      <c r="D303" s="2"/>
       <c r="E303" s="1" t="s">
         <v>13</v>
       </c>
@@ -16879,7 +17089,7 @@
       <c r="C304" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D304" s="1"/>
+      <c r="D304" s="2"/>
       <c r="E304" s="1" t="s">
         <v>13</v>
       </c>
@@ -16913,7 +17123,7 @@
       <c r="C305" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D305" s="1"/>
+      <c r="D305" s="2"/>
       <c r="E305" s="1" t="s">
         <v>13</v>
       </c>
@@ -16947,7 +17157,7 @@
       <c r="C306" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D306" s="1"/>
+      <c r="D306" s="2"/>
       <c r="E306" s="1" t="s">
         <v>13</v>
       </c>
@@ -16981,7 +17191,7 @@
       <c r="C307" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="D307" s="1"/>
+      <c r="D307" s="2"/>
       <c r="E307" s="1" t="s">
         <v>13</v>
       </c>
@@ -17015,7 +17225,7 @@
       <c r="C308" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D308" s="1"/>
+      <c r="D308" s="2"/>
       <c r="E308" s="1" t="s">
         <v>13</v>
       </c>
@@ -17051,7 +17261,7 @@
       <c r="C309" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="D309" s="1"/>
+      <c r="D309" s="2"/>
       <c r="E309" s="1" t="s">
         <v>13</v>
       </c>
@@ -17083,9 +17293,9 @@
         <v>75</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D310" s="1"/>
+        <v>1906</v>
+      </c>
+      <c r="D310" s="2"/>
       <c r="E310" s="1" t="s">
         <v>13</v>
       </c>
@@ -17117,9 +17327,9 @@
         <v>75</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D311" s="1"/>
+        <v>1913</v>
+      </c>
+      <c r="D311" s="2"/>
       <c r="E311" s="1" t="s">
         <v>13</v>
       </c>
@@ -17139,7 +17349,7 @@
         <v>1452</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
@@ -17155,7 +17365,7 @@
       <c r="C312" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="2"/>
       <c r="E312" s="1" t="s">
         <v>13</v>
       </c>
@@ -17189,7 +17399,7 @@
       <c r="C313" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D313" s="1"/>
+      <c r="D313" s="2"/>
       <c r="E313" s="1" t="s">
         <v>13</v>
       </c>
@@ -17223,7 +17433,7 @@
       <c r="C314" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="1"/>
+      <c r="D314" s="2"/>
       <c r="E314" s="1" t="s">
         <v>13</v>
       </c>
@@ -17257,7 +17467,7 @@
       <c r="C315" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D315" s="1"/>
+      <c r="D315" s="2"/>
       <c r="E315" s="1" t="s">
         <v>13</v>
       </c>
@@ -17291,7 +17501,7 @@
       <c r="C316" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="D316" s="1"/>
+      <c r="D316" s="2"/>
       <c r="E316" s="1" t="s">
         <v>13</v>
       </c>
@@ -17323,9 +17533,9 @@
         <v>75</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D317" s="1"/>
+        <v>1907</v>
+      </c>
+      <c r="D317" s="2"/>
       <c r="E317" s="1" t="s">
         <v>13</v>
       </c>
@@ -17359,7 +17569,7 @@
       <c r="C318" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D318" s="1"/>
+      <c r="D318" s="2"/>
       <c r="E318" s="1" t="s">
         <v>13</v>
       </c>
@@ -17393,7 +17603,7 @@
       <c r="C319" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="D319" s="1"/>
+      <c r="D319" s="2"/>
       <c r="E319" s="1" t="s">
         <v>13</v>
       </c>
@@ -17427,7 +17637,7 @@
       <c r="C320" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="D320" s="1"/>
+      <c r="D320" s="2"/>
       <c r="E320" s="1" t="s">
         <v>13</v>
       </c>
@@ -17459,9 +17669,9 @@
         <v>75</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D321" s="1"/>
+        <v>1900</v>
+      </c>
+      <c r="D321" s="2"/>
       <c r="E321" s="1" t="s">
         <v>13</v>
       </c>
@@ -17493,9 +17703,9 @@
         <v>75</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D322" s="1"/>
+        <v>1912</v>
+      </c>
+      <c r="D322" s="2"/>
       <c r="E322" s="1" t="s">
         <v>13</v>
       </c>
@@ -17527,9 +17737,9 @@
         <v>75</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D323" s="1"/>
+        <v>1904</v>
+      </c>
+      <c r="D323" s="2"/>
       <c r="E323" s="1" t="s">
         <v>13</v>
       </c>
@@ -17563,7 +17773,7 @@
       <c r="C324" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="2"/>
       <c r="E324" s="1" t="s">
         <v>13</v>
       </c>
@@ -17597,7 +17807,7 @@
       <c r="C325" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="D325" s="1"/>
+      <c r="D325" s="2"/>
       <c r="E325" s="1" t="s">
         <v>13</v>
       </c>
@@ -17631,7 +17841,7 @@
       <c r="C326" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D326" s="1"/>
+      <c r="D326" s="2"/>
       <c r="E326" s="1" t="s">
         <v>13</v>
       </c>
@@ -17665,7 +17875,7 @@
       <c r="C327" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D327" s="1"/>
+      <c r="D327" s="2"/>
       <c r="E327" s="1" t="s">
         <v>13</v>
       </c>
@@ -17697,9 +17907,9 @@
         <v>75</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D328" s="1"/>
+        <v>1908</v>
+      </c>
+      <c r="D328" s="2"/>
       <c r="E328" s="1" t="s">
         <v>13</v>
       </c>
@@ -17731,9 +17941,9 @@
         <v>10</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D329" s="1"/>
+        <v>1893</v>
+      </c>
+      <c r="D329" s="2"/>
       <c r="E329" s="1" t="s">
         <v>13</v>
       </c>
@@ -17767,7 +17977,7 @@
       <c r="C330" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="D330" s="1"/>
+      <c r="D330" s="2"/>
       <c r="E330" s="1" t="s">
         <v>13</v>
       </c>
@@ -17801,7 +18011,7 @@
       <c r="C331" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D331" s="1"/>
+      <c r="D331" s="2"/>
       <c r="E331" s="1" t="s">
         <v>13</v>
       </c>
@@ -17837,7 +18047,7 @@
       <c r="C332" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D332" s="1"/>
+      <c r="D332" s="2"/>
       <c r="E332" s="1" t="s">
         <v>13</v>
       </c>
@@ -17871,7 +18081,7 @@
       <c r="C333" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="D333" s="1"/>
+      <c r="D333" s="2"/>
       <c r="E333" s="1" t="s">
         <v>13</v>
       </c>
@@ -17903,9 +18113,9 @@
         <v>75</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D334" s="1"/>
+        <v>1878</v>
+      </c>
+      <c r="D334" s="2"/>
       <c r="E334" s="1" t="s">
         <v>13</v>
       </c>
@@ -17939,7 +18149,7 @@
       <c r="C335" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="D335" s="1"/>
+      <c r="D335" s="2"/>
       <c r="E335" s="1" t="s">
         <v>13</v>
       </c>
@@ -17973,7 +18183,7 @@
       <c r="C336" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="D336" s="1"/>
+      <c r="D336" s="2"/>
       <c r="E336" s="1" t="s">
         <v>13</v>
       </c>
@@ -18007,7 +18217,7 @@
       <c r="C337" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="2"/>
       <c r="E337" s="1" t="s">
         <v>13</v>
       </c>
@@ -18039,9 +18249,9 @@
         <v>75</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D338" s="1"/>
+        <v>1899</v>
+      </c>
+      <c r="D338" s="2"/>
       <c r="E338" s="1" t="s">
         <v>13</v>
       </c>
@@ -18075,7 +18285,7 @@
       <c r="C339" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="D339" s="1"/>
+      <c r="D339" s="2"/>
       <c r="E339" s="1" t="s">
         <v>13</v>
       </c>
@@ -18109,7 +18319,7 @@
       <c r="C340" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="D340" s="1"/>
+      <c r="D340" s="2"/>
       <c r="E340" s="1" t="s">
         <v>13</v>
       </c>
@@ -18143,7 +18353,7 @@
       <c r="C341" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D341" s="1"/>
+      <c r="D341" s="2"/>
       <c r="E341" s="1" t="s">
         <v>13</v>
       </c>
@@ -18177,7 +18387,7 @@
       <c r="C342" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="D342" s="1"/>
+      <c r="D342" s="2"/>
       <c r="E342" s="1" t="s">
         <v>13</v>
       </c>
@@ -18211,7 +18421,7 @@
       <c r="C343" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D343" s="1"/>
+      <c r="D343" s="2"/>
       <c r="E343" s="1" t="s">
         <v>13</v>
       </c>
@@ -18245,7 +18455,7 @@
       <c r="C344" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="D344" s="1"/>
+      <c r="D344" s="2"/>
       <c r="E344" s="1" t="s">
         <v>13</v>
       </c>
@@ -18279,7 +18489,7 @@
       <c r="C345" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D345" s="1"/>
+      <c r="D345" s="2"/>
       <c r="E345" s="1" t="s">
         <v>13</v>
       </c>
@@ -18313,7 +18523,7 @@
       <c r="C346" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="D346" s="1"/>
+      <c r="D346" s="2"/>
       <c r="E346" s="1" t="s">
         <v>13</v>
       </c>
@@ -18347,7 +18557,7 @@
       <c r="C347" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="D347" s="1"/>
+      <c r="D347" s="2"/>
       <c r="E347" s="1" t="s">
         <v>13</v>
       </c>
@@ -18381,7 +18591,7 @@
       <c r="C348" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D348" s="1"/>
+      <c r="D348" s="2"/>
       <c r="E348" s="1" t="s">
         <v>13</v>
       </c>
@@ -18413,9 +18623,9 @@
         <v>75</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D349" s="1"/>
+        <v>1895</v>
+      </c>
+      <c r="D349" s="2"/>
       <c r="E349" s="1" t="s">
         <v>13</v>
       </c>
@@ -18447,9 +18657,9 @@
         <v>75</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D350" s="1"/>
+        <v>1914</v>
+      </c>
+      <c r="D350" s="2"/>
       <c r="E350" s="1" t="s">
         <v>13</v>
       </c>
@@ -18483,7 +18693,7 @@
       <c r="C351" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="2"/>
       <c r="E351" s="1" t="s">
         <v>13</v>
       </c>
@@ -18517,7 +18727,7 @@
       <c r="C352" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="D352" s="1"/>
+      <c r="D352" s="2"/>
       <c r="E352" s="1" t="s">
         <v>13</v>
       </c>
@@ -18551,7 +18761,7 @@
       <c r="C353" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="D353" s="1"/>
+      <c r="D353" s="2"/>
       <c r="E353" s="1" t="s">
         <v>13</v>
       </c>
@@ -18585,7 +18795,7 @@
       <c r="C354" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D354" s="1"/>
+      <c r="D354" s="2"/>
       <c r="E354" s="1" t="s">
         <v>13</v>
       </c>
@@ -18619,7 +18829,7 @@
       <c r="C355" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D355" s="1"/>
+      <c r="D355" s="2"/>
       <c r="E355" s="1" t="s">
         <v>13</v>
       </c>
@@ -18653,7 +18863,7 @@
       <c r="C356" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D356" s="1"/>
+      <c r="D356" s="2"/>
       <c r="E356" s="1" t="s">
         <v>13</v>
       </c>
@@ -18687,7 +18897,7 @@
       <c r="C357" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D357" s="1"/>
+      <c r="D357" s="2"/>
       <c r="E357" s="1" t="s">
         <v>13</v>
       </c>
@@ -18721,7 +18931,7 @@
       <c r="C358" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="D358" s="1"/>
+      <c r="D358" s="2"/>
       <c r="E358" s="1" t="s">
         <v>13</v>
       </c>
@@ -18755,7 +18965,7 @@
       <c r="C359" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="D359" s="1"/>
+      <c r="D359" s="2"/>
       <c r="E359" s="1" t="s">
         <v>13</v>
       </c>
@@ -18789,7 +18999,7 @@
       <c r="C360" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="D360" s="1"/>
+      <c r="D360" s="2"/>
       <c r="E360" s="1" t="s">
         <v>13</v>
       </c>
@@ -18823,7 +19033,7 @@
       <c r="C361" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D361" s="1"/>
+      <c r="D361" s="2"/>
       <c r="E361" s="1" t="s">
         <v>13</v>
       </c>
@@ -18857,7 +19067,7 @@
       <c r="C362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D362" s="1"/>
+      <c r="D362" s="2"/>
       <c r="E362" s="1" t="s">
         <v>13</v>
       </c>
@@ -18891,7 +19101,7 @@
       <c r="C363" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D363" s="1"/>
+      <c r="D363" s="2"/>
       <c r="E363" s="1" t="s">
         <v>13</v>
       </c>
@@ -18925,7 +19135,7 @@
       <c r="C364" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D364" s="1"/>
+      <c r="D364" s="2"/>
       <c r="E364" s="1" t="s">
         <v>13</v>
       </c>
@@ -18959,7 +19169,7 @@
       <c r="C365" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="D365" s="1"/>
+      <c r="D365" s="2"/>
       <c r="E365" s="1" t="s">
         <v>13</v>
       </c>
@@ -18993,7 +19203,7 @@
       <c r="C366" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D366" s="1"/>
+      <c r="D366" s="2"/>
       <c r="E366" s="1" t="s">
         <v>13</v>
       </c>
@@ -19027,7 +19237,7 @@
       <c r="C367" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D367" s="1"/>
+      <c r="D367" s="2"/>
       <c r="E367" s="1" t="s">
         <v>13</v>
       </c>
@@ -19061,7 +19271,7 @@
       <c r="C368" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D368" s="1"/>
+      <c r="D368" s="2"/>
       <c r="E368" s="1" t="s">
         <v>13</v>
       </c>
@@ -19093,9 +19303,9 @@
         <v>75</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D369" s="1"/>
+        <v>1897</v>
+      </c>
+      <c r="D369" s="2"/>
       <c r="E369" s="1" t="s">
         <v>13</v>
       </c>
@@ -19129,7 +19339,7 @@
       <c r="C370" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="D370" s="1"/>
+      <c r="D370" s="2"/>
       <c r="E370" s="1" t="s">
         <v>13</v>
       </c>
@@ -19163,7 +19373,7 @@
       <c r="C371" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D371" s="1"/>
+      <c r="D371" s="2"/>
       <c r="E371" s="1" t="s">
         <v>13</v>
       </c>
@@ -19197,7 +19407,7 @@
       <c r="C372" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D372" s="1"/>
+      <c r="D372" s="2"/>
       <c r="E372" s="1" t="s">
         <v>13</v>
       </c>
@@ -19231,7 +19441,7 @@
       <c r="C373" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="D373" s="1"/>
+      <c r="D373" s="2"/>
       <c r="E373" s="1" t="s">
         <v>13</v>
       </c>
@@ -19265,7 +19475,7 @@
       <c r="C374" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="D374" s="1"/>
+      <c r="D374" s="2"/>
       <c r="E374" s="1" t="s">
         <v>13</v>
       </c>
@@ -19299,7 +19509,7 @@
       <c r="C375" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D375" s="1"/>
+      <c r="D375" s="2"/>
       <c r="E375" s="1" t="s">
         <v>13</v>
       </c>
@@ -19333,7 +19543,7 @@
       <c r="C376" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D376" s="1"/>
+      <c r="D376" s="2"/>
       <c r="E376" s="1" t="s">
         <v>13</v>
       </c>
@@ -19367,7 +19577,7 @@
       <c r="C377" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="D377" s="1"/>
+      <c r="D377" s="2"/>
       <c r="E377" s="1" t="s">
         <v>13</v>
       </c>
@@ -19401,7 +19611,7 @@
       <c r="C378" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D378" s="1"/>
+      <c r="D378" s="2"/>
       <c r="E378" s="1" t="s">
         <v>13</v>
       </c>
@@ -19435,7 +19645,7 @@
       <c r="C379" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="D379" s="1"/>
+      <c r="D379" s="2"/>
       <c r="E379" s="1" t="s">
         <v>13</v>
       </c>
@@ -19469,7 +19679,7 @@
       <c r="C380" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="D380" s="1"/>
+      <c r="D380" s="2"/>
       <c r="E380" s="1" t="s">
         <v>13</v>
       </c>
@@ -19503,7 +19713,7 @@
       <c r="C381" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D381" s="1"/>
+      <c r="D381" s="2"/>
       <c r="E381" s="1" t="s">
         <v>13</v>
       </c>
@@ -19537,7 +19747,7 @@
       <c r="C382" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D382" s="1"/>
+      <c r="D382" s="2"/>
       <c r="E382" s="1" t="s">
         <v>13</v>
       </c>
@@ -19569,9 +19779,9 @@
         <v>10</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D383" s="1"/>
+        <v>1894</v>
+      </c>
+      <c r="D383" s="2"/>
       <c r="E383" s="1" t="s">
         <v>13</v>
       </c>
@@ -19605,7 +19815,7 @@
       <c r="C384" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="D384" s="1"/>
+      <c r="D384" s="2"/>
       <c r="E384" s="1" t="s">
         <v>13</v>
       </c>
@@ -19639,7 +19849,7 @@
       <c r="C385" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="D385" s="1"/>
+      <c r="D385" s="2"/>
       <c r="E385" s="1" t="s">
         <v>13</v>
       </c>
@@ -19673,7 +19883,7 @@
       <c r="C386" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="D386" s="1"/>
+      <c r="D386" s="2"/>
       <c r="E386" s="1" t="s">
         <v>13</v>
       </c>
@@ -19707,7 +19917,7 @@
       <c r="C387" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="D387" s="1"/>
+      <c r="D387" s="2"/>
       <c r="E387" s="1" t="s">
         <v>13</v>
       </c>
@@ -19741,7 +19951,7 @@
       <c r="C388" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="D388" s="1"/>
+      <c r="D388" s="2"/>
       <c r="E388" s="1" t="s">
         <v>13</v>
       </c>
@@ -19775,7 +19985,7 @@
       <c r="C389" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="D389" s="1"/>
+      <c r="D389" s="2"/>
       <c r="E389" s="1" t="s">
         <v>13</v>
       </c>
@@ -19809,7 +20019,7 @@
       <c r="C390" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="D390" s="1"/>
+      <c r="D390" s="2"/>
       <c r="E390" s="1" t="s">
         <v>13</v>
       </c>
@@ -19843,7 +20053,7 @@
       <c r="C391" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D391" s="1"/>
+      <c r="D391" s="2"/>
       <c r="E391" s="1" t="s">
         <v>13</v>
       </c>
@@ -19877,7 +20087,7 @@
       <c r="C392" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D392" s="1"/>
+      <c r="D392" s="2"/>
       <c r="E392" s="1" t="s">
         <v>13</v>
       </c>
@@ -19911,7 +20121,7 @@
       <c r="C393" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="D393" s="1"/>
+      <c r="D393" s="2"/>
       <c r="E393" s="1" t="s">
         <v>13</v>
       </c>
@@ -19945,7 +20155,7 @@
       <c r="C394" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D394" s="1"/>
+      <c r="D394" s="2"/>
       <c r="E394" s="1" t="s">
         <v>13</v>
       </c>
@@ -19979,7 +20189,7 @@
       <c r="C395" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="D395" s="1"/>
+      <c r="D395" s="2"/>
       <c r="E395" s="1" t="s">
         <v>13</v>
       </c>
@@ -20013,7 +20223,7 @@
       <c r="C396" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D396" s="1"/>
+      <c r="D396" s="2"/>
       <c r="E396" s="1" t="s">
         <v>13</v>
       </c>
@@ -20047,7 +20257,7 @@
       <c r="C397" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D397" s="1"/>
+      <c r="D397" s="2"/>
       <c r="E397" s="1" t="s">
         <v>13</v>
       </c>
@@ -20081,7 +20291,7 @@
       <c r="C398" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D398" s="1"/>
+      <c r="D398" s="2"/>
       <c r="E398" s="1" t="s">
         <v>13</v>
       </c>
@@ -20115,7 +20325,7 @@
       <c r="C399" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="1"/>
+      <c r="D399" s="2"/>
       <c r="E399" s="1" t="s">
         <v>13</v>
       </c>
@@ -20149,7 +20359,7 @@
       <c r="C400" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D400" s="1"/>
+      <c r="D400" s="2"/>
       <c r="E400" s="1" t="s">
         <v>13</v>
       </c>
@@ -20181,9 +20391,9 @@
         <v>75</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D401" s="1"/>
+        <v>1896</v>
+      </c>
+      <c r="D401" s="2"/>
       <c r="E401" s="1" t="s">
         <v>13</v>
       </c>
@@ -20215,9 +20425,9 @@
         <v>75</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D402" s="1"/>
+        <v>1772</v>
+      </c>
+      <c r="D402" s="2"/>
       <c r="E402" s="1" t="s">
         <v>13</v>
       </c>
@@ -20251,7 +20461,7 @@
       <c r="C403" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="D403" s="1"/>
+      <c r="D403" s="2"/>
       <c r="E403" s="1" t="s">
         <v>13</v>
       </c>
@@ -20283,9 +20493,9 @@
         <v>75</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D404" s="1"/>
+        <v>1911</v>
+      </c>
+      <c r="D404" s="2"/>
       <c r="E404" s="1" t="s">
         <v>13</v>
       </c>
@@ -20319,7 +20529,7 @@
       <c r="C405" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="D405" s="1"/>
+      <c r="D405" s="2"/>
       <c r="E405" s="1" t="s">
         <v>13</v>
       </c>
@@ -20353,7 +20563,7 @@
       <c r="C406" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D406" s="1"/>
+      <c r="D406" s="2"/>
       <c r="E406" s="1" t="s">
         <v>13</v>
       </c>
@@ -20385,9 +20595,9 @@
         <v>75</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D407" s="1"/>
+        <v>1898</v>
+      </c>
+      <c r="D407" s="2"/>
       <c r="E407" s="1" t="s">
         <v>13</v>
       </c>
@@ -20419,9 +20629,9 @@
         <v>75</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D408" s="1"/>
+        <v>1902</v>
+      </c>
+      <c r="D408" s="2"/>
       <c r="E408" s="1" t="s">
         <v>13</v>
       </c>
@@ -20455,7 +20665,7 @@
       <c r="C409" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D409" s="1"/>
+      <c r="D409" s="2"/>
       <c r="E409" s="1" t="s">
         <v>13</v>
       </c>
@@ -20489,7 +20699,7 @@
       <c r="C410" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D410" s="1"/>
+      <c r="D410" s="2"/>
       <c r="E410" s="1" t="s">
         <v>13</v>
       </c>
@@ -20523,7 +20733,7 @@
       <c r="C411" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D411" s="1"/>
+      <c r="D411" s="2"/>
       <c r="E411" s="1" t="s">
         <v>13</v>
       </c>
@@ -20557,7 +20767,7 @@
       <c r="C412" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D412" s="1"/>
+      <c r="D412" s="2"/>
       <c r="E412" s="1" t="s">
         <v>13</v>
       </c>
@@ -20591,9 +20801,9 @@
         <v>75</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D413" s="1"/>
+        <v>1905</v>
+      </c>
+      <c r="D413" s="2"/>
       <c r="E413" s="1" t="s">
         <v>13</v>
       </c>
@@ -20627,7 +20837,7 @@
       <c r="C414" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="D414" s="1"/>
+      <c r="D414" s="2"/>
       <c r="E414" s="1" t="s">
         <v>13</v>
       </c>
@@ -20661,7 +20871,7 @@
       <c r="C415" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="D415" s="1"/>
+      <c r="D415" s="2"/>
       <c r="E415" s="1" t="s">
         <v>13</v>
       </c>
@@ -20695,7 +20905,7 @@
       <c r="C416" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="D416" s="1"/>
+      <c r="D416" s="2"/>
       <c r="E416" s="1" t="s">
         <v>13</v>
       </c>
@@ -20727,9 +20937,9 @@
         <v>75</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D417" s="1"/>
+        <v>1903</v>
+      </c>
+      <c r="D417" s="2"/>
       <c r="E417" s="1" t="s">
         <v>13</v>
       </c>
@@ -20761,32 +20971,658 @@
         <v>75</v>
       </c>
       <c r="C418" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D418" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="D418" s="1" t="s">
+      <c r="E418" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="E418" s="1" t="s">
+      <c r="F418" s="1" t="s">
         <v>1925</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>1926</v>
       </c>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
       <c r="K418" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L418" s="1"/>
       <c r="M418" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N418" s="1"/>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A419" s="5">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D419" s="2"/>
+      <c r="E419" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="1"/>
+      <c r="N419" s="1"/>
+    </row>
+    <row r="420" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A420" s="5">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D420" s="2"/>
+      <c r="E420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L420" s="1"/>
+      <c r="M420" s="1"/>
+      <c r="N420" s="1"/>
+    </row>
+    <row r="421" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A421" s="5">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D421" s="2"/>
+      <c r="E421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1"/>
+      <c r="N421" s="1"/>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A422" s="5">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D422" s="2"/>
+      <c r="E422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K422" s="1"/>
+      <c r="L422" s="1"/>
+      <c r="M422" s="1"/>
+      <c r="N422" s="1"/>
+    </row>
+    <row r="423" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A423" s="5">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D423" s="2"/>
+      <c r="E423" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="1"/>
+      <c r="L423" s="1"/>
+      <c r="M423" s="1"/>
+      <c r="N423" s="1"/>
+    </row>
+    <row r="424" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A424" s="5">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D424" s="2"/>
+      <c r="E424" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
+      <c r="J424" s="2"/>
+      <c r="K424" s="1"/>
+      <c r="L424" s="1"/>
+      <c r="M424" s="1"/>
+      <c r="N424" s="1"/>
+    </row>
+    <row r="425" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A425" s="5">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D425" s="2"/>
+      <c r="E425" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="1"/>
+      <c r="L425" s="1"/>
+      <c r="M425" s="1"/>
+      <c r="N425" s="1"/>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A426" s="5">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D426" s="2"/>
+      <c r="E426" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="J426" s="2"/>
+      <c r="K426" s="1"/>
+      <c r="L426" s="1"/>
+      <c r="M426" s="1"/>
+      <c r="N426" s="1"/>
+    </row>
+    <row r="427" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A427" s="5">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D427" s="2"/>
+      <c r="E427" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F427" s="6" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
+      <c r="J427" s="2"/>
+      <c r="K427" s="1"/>
+      <c r="L427" s="1"/>
+      <c r="M427" s="1"/>
+      <c r="N427" s="1"/>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A428" s="5">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D428" s="2"/>
+      <c r="E428" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
+      <c r="J428" s="2"/>
+      <c r="K428" s="1"/>
+      <c r="L428" s="1"/>
+      <c r="M428" s="1"/>
+      <c r="N428" s="1"/>
+    </row>
+    <row r="429" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A429" s="5">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D429" s="2"/>
+      <c r="E429" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="1"/>
+      <c r="L429" s="1"/>
+      <c r="M429" s="1"/>
+      <c r="N429" s="1"/>
+    </row>
+    <row r="430" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A430" s="5">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G430" s="2"/>
+      <c r="H430" s="2"/>
+      <c r="I430" s="2"/>
+      <c r="J430" s="2"/>
+      <c r="K430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
+    </row>
+    <row r="431" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A431" s="5">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G431" s="2"/>
+      <c r="H431" s="2"/>
+      <c r="I431" s="2"/>
+      <c r="J431" s="2"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
+    </row>
+    <row r="432" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A432" s="5">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D432" s="2"/>
+      <c r="E432" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G432" s="2"/>
+      <c r="H432" s="2"/>
+      <c r="I432" s="2"/>
+      <c r="J432" s="2"/>
+      <c r="K432" s="1"/>
+      <c r="L432" s="1"/>
+      <c r="M432" s="1"/>
+      <c r="N432" s="1"/>
+    </row>
+    <row r="433" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A433" s="5">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D433" s="2"/>
+      <c r="E433" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F433" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G433" s="2"/>
+      <c r="H433" s="2"/>
+      <c r="I433" s="2"/>
+      <c r="J433" s="2"/>
+      <c r="K433" s="1"/>
+      <c r="L433" s="1"/>
+      <c r="M433" s="1"/>
+      <c r="N433" s="1"/>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A434" s="5">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D434" s="2"/>
+      <c r="E434" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
+      <c r="J434" s="2"/>
+      <c r="K434" s="1"/>
+      <c r="L434" s="1"/>
+      <c r="M434" s="1"/>
+      <c r="N434" s="1"/>
+    </row>
+    <row r="435" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A435" s="5">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J435" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K435" s="1"/>
+      <c r="L435" s="1"/>
+      <c r="M435" s="1"/>
+      <c r="N435" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K436" s="1"/>
+      <c r="L436" s="1"/>
+      <c r="M436" s="1"/>
+      <c r="N436" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A437" s="5">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D437" s="2"/>
+      <c r="E437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J437" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K437" s="1"/>
+      <c r="L437" s="1"/>
+      <c r="M437" s="1"/>
+      <c r="N437" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D438" s="2"/>
+      <c r="E438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J438" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="M438" s="1"/>
+      <c r="N438" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K439" s="1"/>
+      <c r="L439" s="1"/>
+      <c r="M439" s="1"/>
+      <c r="N439" s="1" t="s">
+        <v>1976</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F424" twoDigitTextYear="1"/>
+    <ignoredError sqref="F427" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ECE-Boards-Practice_st\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FB525-A77D-46AB-AE33-2ACC74FBE5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B555196-D322-488F-AB23-09E397D6AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F837B87B-47E8-48E8-A91E-D5D7B9A773BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F837B87B-47E8-48E8-A91E-D5D7B9A773BB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="2106">
   <si>
     <t>Subject</t>
   </si>
@@ -6272,6 +6272,327 @@
   </si>
   <si>
     <t>1 and -1</t>
+  </si>
+  <si>
+    <t>This sort of device is called a ‘heat pump’. It does not violate the Second Law of thermodynamics because all energy turns into heat energy. Thus, not breaking the first law.The work on the refrigerator adds to the heat transported from the earth both adding heat to the house. This is how some heating systems work.</t>
+  </si>
+  <si>
+    <t>ductility is the ability to change shape (drawn to wires) without breaking. It is measured by % elongation. Thus, more elongation means more ductility.</t>
+  </si>
+  <si>
+    <t>Identify the circuit shown</t>
+  </si>
+  <si>
+    <t>ckt_astableMultivibrator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_colpittsOscillator_BJT.jpg</t>
+  </si>
+  <si>
+    <t>ckt_HartleyOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_integrator_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_ClappOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_phaseShiftOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_wienBridgeOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_highPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>ckt_highPassFilter_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_lowPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>ckt_bandPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>ckt_negEdgeTriggeredFlipFlop.jpg</t>
+  </si>
+  <si>
+    <t>ckt_differentiator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_positiveLogicANDGate.png</t>
+  </si>
+  <si>
+    <t>ckt_fullWaveRectifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_clipper.jpg</t>
+  </si>
+  <si>
+    <t>ckt_halfWaveRectifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_monostableMultivibrator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_comparator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_highIsolationANDGate.jpg</t>
+  </si>
+  <si>
+    <t>ckt_totemPole.jpg</t>
+  </si>
+  <si>
+    <t>ckt_InvertingAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_antiLogAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_voltageFollower.jpg</t>
+  </si>
+  <si>
+    <t>ckt_nonInvertingAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_JFETShuntSwitchingCkt.jpg</t>
+  </si>
+  <si>
+    <t>ckt_doubleEndedOutput.jpg</t>
+  </si>
+  <si>
+    <t>ckt_intrumentationAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_ladderNetwork.png</t>
+  </si>
+  <si>
+    <t>ckt_SeriesPassVoltageRegulator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_peakDetector.jpg</t>
+  </si>
+  <si>
+    <t>ckt_singleEndedInput.jpg</t>
+  </si>
+  <si>
+    <t>ckt_constantVoltageSrc.jpg</t>
+  </si>
+  <si>
+    <t>ckt_lowPassFilter_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_weinBridgeOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_SCS.png</t>
+  </si>
+  <si>
+    <t>ckt_PositiveClamper.jpg</t>
+  </si>
+  <si>
+    <t>ckt_integrator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_logAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_stepDownSwitchingRegulator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_OTA.png</t>
+  </si>
+  <si>
+    <t>ckt_SCS2.png</t>
+  </si>
+  <si>
+    <t>ckt_constantCurrentSource.jpg</t>
+  </si>
+  <si>
+    <t>ckt_transresistanceAmpWithOpenCktMutResRF.jpg</t>
+  </si>
+  <si>
+    <t>ckt_clappOscillator_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_shuntVoltage.jpg</t>
+  </si>
+  <si>
+    <t>ckt_N-channel_MOSFET.png</t>
+  </si>
+  <si>
+    <t>ckt_ADC.jpg</t>
+  </si>
+  <si>
+    <t>ckt_combinationClipper.jpg</t>
+  </si>
+  <si>
+    <t>ckt_complementaryMirror.jpg</t>
+  </si>
+  <si>
+    <t>ckt_Subtractor.jpg</t>
+  </si>
+  <si>
+    <t>ckt_VaricapDiodeEqCkt.png</t>
+  </si>
+  <si>
+    <t>ckt_astableMultiVib.jpg</t>
+  </si>
+  <si>
+    <t>Astable Multivibrator</t>
+  </si>
+  <si>
+    <t>Colpitts Oscillator</t>
+  </si>
+  <si>
+    <t>Hartley Oscillator</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>Clapp Oscillator</t>
+  </si>
+  <si>
+    <t>Phase Shift Oscillator</t>
+  </si>
+  <si>
+    <t>Wien Bridge Oscillator</t>
+  </si>
+  <si>
+    <t>High Pass Filter</t>
+  </si>
+  <si>
+    <t>Low Pass Filter</t>
+  </si>
+  <si>
+    <t>Band Pass Filter</t>
+  </si>
+  <si>
+    <t>negative edge triggered flip flop</t>
+  </si>
+  <si>
+    <t>Differentiator</t>
+  </si>
+  <si>
+    <t>Positive Logic AND gate</t>
+  </si>
+  <si>
+    <t>Full Wave Rectifier</t>
+  </si>
+  <si>
+    <t>Clipper</t>
+  </si>
+  <si>
+    <t>Half Wave Rectifier</t>
+  </si>
+  <si>
+    <t>Monostable multivibrator</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>High Isolation AND Gate</t>
+  </si>
+  <si>
+    <t>Totem Pole</t>
+  </si>
+  <si>
+    <t>Inverting Amplifier</t>
+  </si>
+  <si>
+    <t>Anti-Log Amplifier</t>
+  </si>
+  <si>
+    <t>Voltage Follower</t>
+  </si>
+  <si>
+    <t>Non-Inverting Amplifier</t>
+  </si>
+  <si>
+    <t>JFET shunt switching circuit</t>
+  </si>
+  <si>
+    <t>Double-ended (differential) input</t>
+  </si>
+  <si>
+    <t>Instrumentation Amplifier</t>
+  </si>
+  <si>
+    <t>Ladder Network</t>
+  </si>
+  <si>
+    <t>Series-pass Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Peak Detector</t>
+  </si>
+  <si>
+    <t>Single-Ended Input</t>
+  </si>
+  <si>
+    <t>Current-to-Voltage Converter</t>
+  </si>
+  <si>
+    <t>Constant Voltage Source</t>
+  </si>
+  <si>
+    <t>Wein Bridge Oscillator</t>
+  </si>
+  <si>
+    <t>SCS Terminal Names</t>
+  </si>
+  <si>
+    <t>Positive Clamper</t>
+  </si>
+  <si>
+    <t>Logarithmic Amplifier</t>
+  </si>
+  <si>
+    <t>Step-down switching regulator</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>Constant Current Source</t>
+  </si>
+  <si>
+    <t>Transresistance amplifier with open circuit mutual resistance RF</t>
+  </si>
+  <si>
+    <t>Shunt Voltage</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Combination Clipper</t>
+  </si>
+  <si>
+    <t>Complementary Mirror</t>
+  </si>
+  <si>
+    <t>Subtractor</t>
+  </si>
+  <si>
+    <t>Varicap Diode - Equivalent Circuit</t>
+  </si>
+  <si>
+    <t>ckt_currentToVoltageConverter.jpg</t>
+  </si>
+  <si>
+    <t>ckt_astableMultivibrator.png</t>
   </si>
 </sst>
 </file>
@@ -6425,8 +6746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}" name="Table2" displayName="Table2" ref="A1:N439" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:N439" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}" name="Table2" displayName="Table2" ref="A1:N495" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:N495" xr:uid="{C046523C-39E0-436C-93D9-455D500A7748}"/>
   <tableColumns count="14">
     <tableColumn id="14" xr3:uid="{8C72BA36-1D4F-47F7-829C-DCB9EEAF41EC}" name="question_id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{07904C2B-EA76-4DBD-8FF3-33191F2E4E75}" name="Subject" dataDxfId="12"/>
@@ -6744,10 +7065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35E9D52-67F4-485D-888C-11E569371290}">
-  <dimension ref="A1:N439"/>
+  <dimension ref="A1:N495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,7 +7076,8 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="53.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -6836,7 +7158,9 @@
       <c r="J2" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>2000</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -12079,7 +12403,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -12108,7 +12432,9 @@
       <c r="J157" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="K157" s="1"/>
+      <c r="K157" s="1" t="s">
+        <v>1999</v>
+      </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -21616,6 +21942,1574 @@
       <c r="N439" s="1" t="s">
         <v>1976</v>
       </c>
+    </row>
+    <row r="440" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A440" s="5">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
+    </row>
+    <row r="441" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A441" s="5">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2"/>
+      <c r="I441" s="2"/>
+      <c r="J441" s="2"/>
+      <c r="K441" s="1"/>
+      <c r="L441" s="1"/>
+      <c r="M441" s="1"/>
+      <c r="N441" s="1"/>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A442" s="5">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G442" s="2"/>
+      <c r="H442" s="2"/>
+      <c r="I442" s="2"/>
+      <c r="J442" s="2"/>
+      <c r="K442" s="1"/>
+      <c r="L442" s="1"/>
+      <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A443" s="5">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G443" s="2"/>
+      <c r="H443" s="2"/>
+      <c r="I443" s="2"/>
+      <c r="J443" s="2"/>
+      <c r="K443" s="1"/>
+      <c r="L443" s="1"/>
+      <c r="M443" s="1"/>
+      <c r="N443" s="1"/>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A444" s="5">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G444" s="2"/>
+      <c r="H444" s="2"/>
+      <c r="I444" s="2"/>
+      <c r="J444" s="2"/>
+      <c r="K444" s="1"/>
+      <c r="L444" s="1"/>
+      <c r="M444" s="1"/>
+      <c r="N444" s="1"/>
+    </row>
+    <row r="445" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A445" s="5">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G445" s="2"/>
+      <c r="H445" s="2"/>
+      <c r="I445" s="2"/>
+      <c r="J445" s="2"/>
+      <c r="K445" s="1"/>
+      <c r="L445" s="1"/>
+      <c r="M445" s="1"/>
+      <c r="N445" s="1"/>
+    </row>
+    <row r="446" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A446" s="5">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G446" s="2"/>
+      <c r="H446" s="2"/>
+      <c r="I446" s="2"/>
+      <c r="J446" s="2"/>
+      <c r="K446" s="1"/>
+      <c r="L446" s="1"/>
+      <c r="M446" s="1"/>
+      <c r="N446" s="1"/>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A447" s="5">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+      <c r="I447" s="2"/>
+      <c r="J447" s="2"/>
+      <c r="K447" s="1"/>
+      <c r="L447" s="1"/>
+      <c r="M447" s="1"/>
+      <c r="N447" s="1"/>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A448" s="5">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G448" s="2"/>
+      <c r="H448" s="2"/>
+      <c r="I448" s="2"/>
+      <c r="J448" s="2"/>
+      <c r="K448" s="1"/>
+      <c r="L448" s="1"/>
+      <c r="M448" s="1"/>
+      <c r="N448" s="1"/>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A449" s="5">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+      <c r="I449" s="2"/>
+      <c r="J449" s="2"/>
+      <c r="K449" s="1"/>
+      <c r="L449" s="1"/>
+      <c r="M449" s="1"/>
+      <c r="N449" s="1"/>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A450" s="5">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G450" s="2"/>
+      <c r="H450" s="2"/>
+      <c r="I450" s="2"/>
+      <c r="J450" s="2"/>
+      <c r="K450" s="1"/>
+      <c r="L450" s="1"/>
+      <c r="M450" s="1"/>
+      <c r="N450" s="1"/>
+    </row>
+    <row r="451" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A451" s="5">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G451" s="2"/>
+      <c r="H451" s="2"/>
+      <c r="I451" s="2"/>
+      <c r="J451" s="2"/>
+      <c r="K451" s="1"/>
+      <c r="L451" s="1"/>
+      <c r="M451" s="1"/>
+      <c r="N451" s="1"/>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A452" s="5">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G452" s="2"/>
+      <c r="H452" s="2"/>
+      <c r="I452" s="2"/>
+      <c r="J452" s="2"/>
+      <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="M452" s="1"/>
+      <c r="N452" s="1"/>
+    </row>
+    <row r="453" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A453" s="5">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+      <c r="I453" s="2"/>
+      <c r="J453" s="2"/>
+      <c r="K453" s="1"/>
+      <c r="L453" s="1"/>
+      <c r="M453" s="1"/>
+      <c r="N453" s="1"/>
+    </row>
+    <row r="454" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A454" s="5">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G454" s="2"/>
+      <c r="H454" s="2"/>
+      <c r="I454" s="2"/>
+      <c r="J454" s="2"/>
+      <c r="K454" s="1"/>
+      <c r="L454" s="1"/>
+      <c r="M454" s="1"/>
+      <c r="N454" s="1"/>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A455" s="5">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G455" s="2"/>
+      <c r="H455" s="2"/>
+      <c r="I455" s="2"/>
+      <c r="J455" s="2"/>
+      <c r="K455" s="1"/>
+      <c r="L455" s="1"/>
+      <c r="M455" s="1"/>
+      <c r="N455" s="1"/>
+    </row>
+    <row r="456" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A456" s="5">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G456" s="2"/>
+      <c r="H456" s="2"/>
+      <c r="I456" s="2"/>
+      <c r="J456" s="2"/>
+      <c r="K456" s="1"/>
+      <c r="L456" s="1"/>
+      <c r="M456" s="1"/>
+      <c r="N456" s="1"/>
+    </row>
+    <row r="457" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A457" s="5">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G457" s="2"/>
+      <c r="H457" s="2"/>
+      <c r="I457" s="2"/>
+      <c r="J457" s="2"/>
+      <c r="K457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="M457" s="1"/>
+      <c r="N457" s="1"/>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A458" s="5">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G458" s="2"/>
+      <c r="H458" s="2"/>
+      <c r="I458" s="2"/>
+      <c r="J458" s="2"/>
+      <c r="K458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
+    </row>
+    <row r="459" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A459" s="5">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+      <c r="I459" s="2"/>
+      <c r="J459" s="2"/>
+      <c r="K459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="M459" s="1"/>
+      <c r="N459" s="1"/>
+    </row>
+    <row r="460" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A460" s="5">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
+      <c r="J460" s="2"/>
+      <c r="K460" s="1"/>
+      <c r="L460" s="1"/>
+      <c r="M460" s="1"/>
+      <c r="N460" s="1"/>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A461" s="5">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+      <c r="I461" s="2"/>
+      <c r="J461" s="2"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="M461" s="1"/>
+      <c r="N461" s="1"/>
+    </row>
+    <row r="462" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="5">
+        <v>461</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G462" s="2"/>
+      <c r="H462" s="2"/>
+      <c r="I462" s="2"/>
+      <c r="J462" s="2"/>
+      <c r="K462" s="1"/>
+      <c r="L462" s="1"/>
+      <c r="M462" s="1"/>
+      <c r="N462" s="1"/>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A463" s="5">
+        <v>462</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G463" s="2"/>
+      <c r="H463" s="2"/>
+      <c r="I463" s="2"/>
+      <c r="J463" s="2"/>
+      <c r="K463" s="1"/>
+      <c r="L463" s="1"/>
+      <c r="M463" s="1"/>
+      <c r="N463" s="1"/>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A464" s="5">
+        <v>463</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G464" s="2"/>
+      <c r="H464" s="2"/>
+      <c r="I464" s="2"/>
+      <c r="J464" s="2"/>
+      <c r="K464" s="1"/>
+      <c r="L464" s="1"/>
+      <c r="M464" s="1"/>
+      <c r="N464" s="1"/>
+    </row>
+    <row r="465" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A465" s="5">
+        <v>464</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G465" s="2"/>
+      <c r="H465" s="2"/>
+      <c r="I465" s="2"/>
+      <c r="J465" s="2"/>
+      <c r="K465" s="1"/>
+      <c r="L465" s="1"/>
+      <c r="M465" s="1"/>
+      <c r="N465" s="1"/>
+    </row>
+    <row r="466" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A466" s="5">
+        <v>465</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G466" s="2"/>
+      <c r="H466" s="2"/>
+      <c r="I466" s="2"/>
+      <c r="J466" s="2"/>
+      <c r="K466" s="1"/>
+      <c r="L466" s="1"/>
+      <c r="M466" s="1"/>
+      <c r="N466" s="1"/>
+    </row>
+    <row r="467" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="5">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G467" s="2"/>
+      <c r="H467" s="2"/>
+      <c r="I467" s="2"/>
+      <c r="J467" s="2"/>
+      <c r="K467" s="1"/>
+      <c r="L467" s="1"/>
+      <c r="M467" s="1"/>
+      <c r="N467" s="1"/>
+    </row>
+    <row r="468" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A468" s="5">
+        <v>467</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G468" s="2"/>
+      <c r="H468" s="2"/>
+      <c r="I468" s="2"/>
+      <c r="J468" s="2"/>
+      <c r="K468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="M468" s="1"/>
+      <c r="N468" s="1"/>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A469" s="5">
+        <v>468</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G469" s="2"/>
+      <c r="H469" s="2"/>
+      <c r="I469" s="2"/>
+      <c r="J469" s="2"/>
+      <c r="K469" s="1"/>
+      <c r="L469" s="1"/>
+      <c r="M469" s="1"/>
+      <c r="N469" s="1"/>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A470" s="5">
+        <v>469</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G470" s="2"/>
+      <c r="H470" s="2"/>
+      <c r="I470" s="2"/>
+      <c r="J470" s="2"/>
+      <c r="K470" s="1"/>
+      <c r="L470" s="1"/>
+      <c r="M470" s="1"/>
+      <c r="N470" s="1"/>
+    </row>
+    <row r="471" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A471" s="5">
+        <v>470</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G471" s="2"/>
+      <c r="H471" s="2"/>
+      <c r="I471" s="2"/>
+      <c r="J471" s="2"/>
+      <c r="K471" s="1"/>
+      <c r="L471" s="1"/>
+      <c r="M471" s="1"/>
+      <c r="N471" s="1"/>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A472" s="5">
+        <v>471</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G472" s="2"/>
+      <c r="H472" s="2"/>
+      <c r="I472" s="2"/>
+      <c r="J472" s="2"/>
+      <c r="K472" s="1"/>
+      <c r="L472" s="1"/>
+      <c r="M472" s="1"/>
+      <c r="N472" s="1"/>
+    </row>
+    <row r="473" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A473" s="5">
+        <v>472</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G473" s="2"/>
+      <c r="H473" s="2"/>
+      <c r="I473" s="2"/>
+      <c r="J473" s="2"/>
+      <c r="K473" s="1"/>
+      <c r="L473" s="1"/>
+      <c r="M473" s="1"/>
+      <c r="N473" s="1"/>
+    </row>
+    <row r="474" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A474" s="5">
+        <v>473</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G474" s="2"/>
+      <c r="H474" s="2"/>
+      <c r="I474" s="2"/>
+      <c r="J474" s="2"/>
+      <c r="K474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
+    </row>
+    <row r="475" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A475" s="5">
+        <v>474</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G475" s="2"/>
+      <c r="H475" s="2"/>
+      <c r="I475" s="2"/>
+      <c r="J475" s="2"/>
+      <c r="K475" s="1"/>
+      <c r="L475" s="1"/>
+      <c r="M475" s="1"/>
+      <c r="N475" s="1"/>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A476" s="5">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G476" s="2"/>
+      <c r="H476" s="2"/>
+      <c r="I476" s="2"/>
+      <c r="J476" s="2"/>
+      <c r="K476" s="1"/>
+      <c r="L476" s="1"/>
+      <c r="M476" s="1"/>
+      <c r="N476" s="1"/>
+    </row>
+    <row r="477" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A477" s="5">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G477" s="2"/>
+      <c r="H477" s="2"/>
+      <c r="I477" s="2"/>
+      <c r="J477" s="2"/>
+      <c r="K477" s="1"/>
+      <c r="L477" s="1"/>
+      <c r="M477" s="1"/>
+      <c r="N477" s="1"/>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A478" s="5">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G478" s="2"/>
+      <c r="H478" s="2"/>
+      <c r="I478" s="2"/>
+      <c r="J478" s="2"/>
+      <c r="K478" s="1"/>
+      <c r="L478" s="1"/>
+      <c r="M478" s="1"/>
+      <c r="N478" s="1"/>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A479" s="5">
+        <v>478</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G479" s="2"/>
+      <c r="H479" s="2"/>
+      <c r="I479" s="2"/>
+      <c r="J479" s="2"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1"/>
+      <c r="N479" s="1"/>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A480" s="5">
+        <v>479</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G480" s="2"/>
+      <c r="H480" s="2"/>
+      <c r="I480" s="2"/>
+      <c r="J480" s="2"/>
+      <c r="K480" s="1"/>
+      <c r="L480" s="1"/>
+      <c r="M480" s="1"/>
+      <c r="N480" s="1"/>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A481" s="5">
+        <v>480</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G481" s="2"/>
+      <c r="H481" s="2"/>
+      <c r="I481" s="2"/>
+      <c r="J481" s="2"/>
+      <c r="K481" s="1"/>
+      <c r="L481" s="1"/>
+      <c r="M481" s="1"/>
+      <c r="N481" s="1"/>
+    </row>
+    <row r="482" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A482" s="5">
+        <v>481</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G482" s="2"/>
+      <c r="H482" s="2"/>
+      <c r="I482" s="2"/>
+      <c r="J482" s="2"/>
+      <c r="K482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A483" s="5">
+        <v>482</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G483" s="2"/>
+      <c r="H483" s="2"/>
+      <c r="I483" s="2"/>
+      <c r="J483" s="2"/>
+      <c r="K483" s="1"/>
+      <c r="L483" s="1"/>
+      <c r="M483" s="1"/>
+      <c r="N483" s="1"/>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A484" s="5">
+        <v>483</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G484" s="2"/>
+      <c r="H484" s="2"/>
+      <c r="I484" s="2"/>
+      <c r="J484" s="2"/>
+      <c r="K484" s="1"/>
+      <c r="L484" s="1"/>
+      <c r="M484" s="1"/>
+      <c r="N484" s="1"/>
+    </row>
+    <row r="485" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A485" s="5">
+        <v>484</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G485" s="2"/>
+      <c r="H485" s="2"/>
+      <c r="I485" s="2"/>
+      <c r="J485" s="2"/>
+      <c r="K485" s="1"/>
+      <c r="L485" s="1"/>
+      <c r="M485" s="1"/>
+      <c r="N485" s="1"/>
+    </row>
+    <row r="486" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A486" s="5">
+        <v>485</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G486" s="2"/>
+      <c r="H486" s="2"/>
+      <c r="I486" s="2"/>
+      <c r="J486" s="2"/>
+      <c r="K486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="M486" s="1"/>
+      <c r="N486" s="1"/>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A487" s="5">
+        <v>486</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G487" s="2"/>
+      <c r="H487" s="2"/>
+      <c r="I487" s="2"/>
+      <c r="J487" s="2"/>
+      <c r="K487" s="1"/>
+      <c r="L487" s="1"/>
+      <c r="M487" s="1"/>
+      <c r="N487" s="1"/>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A488" s="5">
+        <v>487</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G488" s="2"/>
+      <c r="H488" s="2"/>
+      <c r="I488" s="2"/>
+      <c r="J488" s="2"/>
+      <c r="K488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="M488" s="1"/>
+      <c r="N488" s="1"/>
+    </row>
+    <row r="489" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A489" s="5">
+        <v>488</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G489" s="2"/>
+      <c r="H489" s="2"/>
+      <c r="I489" s="2"/>
+      <c r="J489" s="2"/>
+      <c r="K489" s="1"/>
+      <c r="L489" s="1"/>
+      <c r="M489" s="1"/>
+      <c r="N489" s="1"/>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A490" s="5">
+        <v>489</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G490" s="2"/>
+      <c r="H490" s="2"/>
+      <c r="I490" s="2"/>
+      <c r="J490" s="2"/>
+      <c r="K490" s="1"/>
+      <c r="L490" s="1"/>
+      <c r="M490" s="1"/>
+      <c r="N490" s="1"/>
+    </row>
+    <row r="491" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" s="5">
+        <v>490</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G491" s="2"/>
+      <c r="H491" s="2"/>
+      <c r="I491" s="2"/>
+      <c r="J491" s="2"/>
+      <c r="K491" s="1"/>
+      <c r="L491" s="1"/>
+      <c r="M491" s="1"/>
+      <c r="N491" s="1"/>
+    </row>
+    <row r="492" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="5">
+        <v>491</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G492" s="2"/>
+      <c r="H492" s="2"/>
+      <c r="I492" s="2"/>
+      <c r="J492" s="2"/>
+      <c r="K492" s="1"/>
+      <c r="L492" s="1"/>
+      <c r="M492" s="1"/>
+      <c r="N492" s="1"/>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A493" s="5">
+        <v>492</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G493" s="2"/>
+      <c r="H493" s="2"/>
+      <c r="I493" s="2"/>
+      <c r="J493" s="2"/>
+      <c r="K493" s="1"/>
+      <c r="L493" s="1"/>
+      <c r="M493" s="1"/>
+      <c r="N493" s="1"/>
+    </row>
+    <row r="494" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A494" s="5">
+        <v>493</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G494" s="2"/>
+      <c r="H494" s="2"/>
+      <c r="I494" s="2"/>
+      <c r="J494" s="2"/>
+      <c r="K494" s="1"/>
+      <c r="L494" s="1"/>
+      <c r="M494" s="1"/>
+      <c r="N494" s="1"/>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A495" s="5">
+        <v>494</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G495" s="2"/>
+      <c r="H495" s="2"/>
+      <c r="I495" s="2"/>
+      <c r="J495" s="2"/>
+      <c r="K495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
